--- a/CAN_Interface/MTLT335_Firwmare Verification_Test_Plan_V1.0_20200821.xlsx
+++ b/CAN_Interface/MTLT335_Firwmare Verification_Test_Plan_V1.0_20200821.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Materials\MTLT335M\FW\new 1.0.3 FW NUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588D4F90-57D3-4C3C-BAB3-62FBB695BB5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D666081-08A5-41CC-BA56-F4B3B578F55E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="929">
   <si>
     <t>Verification Items</t>
   </si>
@@ -928,10 +928,6 @@
     <t>Verify that default CAN baud rate setting is 250kb/s</t>
   </si>
   <si>
-    <t>Send PGN 60159 with data [0, 253, 197]
-Capture PGN 64965 package and verify response is as expected</t>
-  </si>
-  <si>
     <t>UUT ID is not as expected</t>
   </si>
   <si>
@@ -2011,22 +2007,6 @@
     <t>Verify that HR Acceleration Sensor data packet format is as expected</t>
   </si>
   <si>
-    <t>Send PGN 65366 with data[0x80,0x3F]
-Capture PGN 61481 and verify response is as expected</t>
-  </si>
-  <si>
-    <t>Send PGN 65366 with data[0x80,0x3F]
-Capture PGN 61482 and verify response is as expected</t>
-  </si>
-  <si>
-    <t>Send PGN 65366 with data[0x80,0x3F]
-Capture PGN 65387 and verify response is as expected</t>
-  </si>
-  <si>
-    <t>Send PGN 65366 with data[0x80,0x3F]
-Capture PGN 61485 and verify response is as expected</t>
-  </si>
-  <si>
     <t>UUT outputs Acceleration, HR Acceleration, SS2, SS1, Angular Rate and HR Acceleration data packets</t>
   </si>
   <si>
@@ -2122,9 +2102,6 @@
   </si>
   <si>
     <t>4.1.8</t>
-  </si>
-  <si>
-    <t>4.1.9</t>
   </si>
   <si>
     <t>4.1.10</t>
@@ -2718,11 +2695,6 @@
   </si>
   <si>
     <t>Not as expected</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Send PGN 65369 with data 0x[80 92 00 00 00 87], then restart unit.
-Receive  all msg, build all SA list.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3090,18 +3062,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Send PGN 65366 with data[0x80,0x3F]
-Capture PGN 65389 and verify response is as expected</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Capture all data packets by actual measure all datas in CAN.
 Packet type feedback of get msg is expected with what we set.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Send PGN 65366 with data[0x80,0x3F]
-Capture PGN 61459 and verify response is as expected</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4121,9 +4083,6 @@
     <t>0x05</t>
   </si>
   <si>
-    <t>0xf</t>
-  </si>
-  <si>
     <t>0x0505</t>
   </si>
   <si>
@@ -4158,6 +4117,44 @@
   <si>
     <t>Verify that Get command response for Master Status BIT PGN is as expected</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send PGN 65369 with data 0x[80 DA 80 00 87], then restart unit.
+Receive  all msg, build all SA list.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send PGN 60159 with data [0, 253, 197]
+Capture PGN 64965 package and verify response is as expected</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send PGN 65366 with data[0x80,0x3F]
+Capture PGN 61459 is actually exist and packet type get cm verify response is as expected</t>
+  </si>
+  <si>
+    <t>Send PGN 65366 with data[0x80,0x3F]
+Capture PGN 61481 is actually exist and packet type get cm verify response is as expected</t>
+  </si>
+  <si>
+    <t>Send PGN 65366 with data[0x80,0x3F]
+Capture PGN 61482 is actually exist and packet type get cm verify response is as expected</t>
+  </si>
+  <si>
+    <t>Send PGN 65366 with data[0x80,0x3F]
+Capture PGN 65387 is actually exist and packet type get cm verify response is as expected</t>
+  </si>
+  <si>
+    <t>Send PGN 65366 with data[0x80,0x3F]
+Capture PGN 61485 is actually exist and packet type get cm verify response is as expected</t>
+  </si>
+  <si>
+    <t>Send PGN 65366 with data[0x80,0x3F]
+Capture PGN 65389 is actually exist and packet type get cm verify response is as expected</t>
   </si>
 </sst>
 </file>
@@ -4854,7 +4851,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5213,6 +5210,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5330,7 +5333,118 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="125">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6250,23 +6364,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7640,8 +7737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H371"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B158" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A179" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -7659,24 +7756,24 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
       <c r="A1" s="45"/>
-      <c r="B1" s="137" t="s">
-        <v>430</v>
-      </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
+      <c r="B1" s="139" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1">
       <c r="B2" s="109" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
@@ -7714,13 +7811,13 @@
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
-      <c r="E5" s="120" t="s">
+      <c r="E5" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="138" t="s">
+      <c r="G5" s="140" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7730,9 +7827,9 @@
       </c>
       <c r="C6" s="92"/>
       <c r="D6" s="93"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="139"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="141"/>
     </row>
     <row r="7" spans="1:7" ht="22.7" hidden="1" customHeight="1">
       <c r="B7" s="77" t="s">
@@ -7740,9 +7837,9 @@
       </c>
       <c r="C7" s="92"/>
       <c r="D7" s="93"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="139"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="141"/>
     </row>
     <row r="8" spans="1:7" ht="22.7" hidden="1" customHeight="1">
       <c r="B8" s="77" t="s">
@@ -7750,19 +7847,19 @@
       </c>
       <c r="C8" s="92"/>
       <c r="D8" s="93"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="139"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="141"/>
     </row>
     <row r="9" spans="1:7" ht="22.7" hidden="1" customHeight="1">
       <c r="B9" s="77" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C9" s="92"/>
       <c r="D9" s="93"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="139"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="141"/>
     </row>
     <row r="10" spans="1:7" ht="22.7" hidden="1" customHeight="1">
       <c r="B10" s="80"/>
@@ -7788,13 +7885,13 @@
       </c>
       <c r="C12" s="95"/>
       <c r="D12" s="95"/>
-      <c r="E12" s="140" t="s">
-        <v>686</v>
-      </c>
-      <c r="F12" s="140" t="s">
+      <c r="E12" s="142" t="s">
+        <v>680</v>
+      </c>
+      <c r="F12" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="142" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7804,9 +7901,9 @@
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
     </row>
     <row r="14" spans="1:7" ht="23.1" hidden="1" customHeight="1">
       <c r="B14" s="110" t="s">
@@ -7814,9 +7911,9 @@
       </c>
       <c r="C14" s="96"/>
       <c r="D14" s="97"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
     </row>
     <row r="15" spans="1:7" ht="23.1" hidden="1" customHeight="1">
       <c r="B15" s="110" t="s">
@@ -7824,9 +7921,9 @@
       </c>
       <c r="C15" s="96"/>
       <c r="D15" s="97"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
     </row>
     <row r="16" spans="1:7" ht="36.950000000000003" hidden="1" customHeight="1">
       <c r="B16" s="110" t="s">
@@ -7834,9 +7931,9 @@
       </c>
       <c r="C16" s="96"/>
       <c r="D16" s="97"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
     </row>
     <row r="17" spans="2:7" ht="23.1" hidden="1" customHeight="1">
       <c r="B17" s="110" t="s">
@@ -7844,24 +7941,24 @@
       </c>
       <c r="C17" s="96"/>
       <c r="D17" s="97"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
     </row>
     <row r="18" spans="2:7" ht="30" hidden="1">
       <c r="B18" s="110" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C18" s="98"/>
       <c r="D18" s="98"/>
       <c r="E18" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="G18" s="24" t="s">
         <v>387</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="51" hidden="1" customHeight="1">
@@ -7893,7 +7990,7 @@
         <v>26</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="51" hidden="1" customHeight="1">
@@ -7994,18 +8091,18 @@
     </row>
     <row r="27" spans="2:7" ht="65.099999999999994" hidden="1" customHeight="1">
       <c r="B27" s="110" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C27" s="99"/>
       <c r="D27" s="99"/>
       <c r="E27" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="51" hidden="1" customHeight="1">
@@ -8095,13 +8192,13 @@
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>434</v>
-      </c>
       <c r="G33" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="45" hidden="1">
@@ -8111,7 +8208,7 @@
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>67</v>
@@ -8127,10 +8224,10 @@
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>68</v>
@@ -8204,18 +8301,18 @@
     </row>
     <row r="41" spans="2:7" ht="22.7" hidden="1" customHeight="1">
       <c r="B41" s="77" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="G41" s="11" t="s">
         <v>442</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="22.7" hidden="1" customHeight="1">
@@ -8284,50 +8381,50 @@
     </row>
     <row r="46" spans="2:7" ht="22.7" hidden="1" customHeight="1">
       <c r="B46" s="77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F46" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>453</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="22.7" hidden="1" customHeight="1">
       <c r="B47" s="77" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="30" hidden="1">
       <c r="B48" s="77" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="22.7" hidden="1" customHeight="1">
@@ -8380,18 +8477,18 @@
     </row>
     <row r="52" spans="2:7" ht="30" hidden="1">
       <c r="B52" s="77" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
       <c r="E52" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F52" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="G52" s="11" t="s">
         <v>442</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="22.7" hidden="1" customHeight="1">
@@ -8460,50 +8557,50 @@
     </row>
     <row r="57" spans="2:7" ht="22.7" hidden="1" customHeight="1">
       <c r="B57" s="77" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
       <c r="E57" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F57" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>453</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="22.7" hidden="1" customHeight="1">
       <c r="B58" s="77" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
       <c r="E58" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="30" hidden="1">
       <c r="B59" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
       <c r="E59" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="22.7" hidden="1" customHeight="1">
@@ -8717,7 +8814,7 @@
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
       <c r="E74" s="10" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>127</v>
@@ -8810,18 +8907,18 @@
     </row>
     <row r="81" spans="2:7" ht="75" hidden="1">
       <c r="B81" s="77" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C81" s="26"/>
       <c r="D81" s="26"/>
       <c r="E81" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="G81" s="10" t="s">
         <v>466</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="36.75" hidden="1" customHeight="1">
@@ -8874,50 +8971,50 @@
     </row>
     <row r="85" spans="2:7" ht="64.7" hidden="1" customHeight="1">
       <c r="B85" s="77" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C85" s="26"/>
       <c r="D85" s="26"/>
       <c r="E85" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="F85" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="G85" s="10" t="s">
         <v>470</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="60" hidden="1">
       <c r="B86" s="77" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
       <c r="E86" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F86" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="G86" s="10" t="s">
         <v>474</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="64.7" hidden="1" customHeight="1">
       <c r="B87" s="77" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C87" s="26"/>
       <c r="D87" s="26"/>
       <c r="E87" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="G87" s="10" t="s">
         <v>478</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="90" hidden="1">
@@ -8927,7 +9024,7 @@
       <c r="C88" s="26"/>
       <c r="D88" s="26"/>
       <c r="E88" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>179</v>
@@ -8970,12 +9067,12 @@
     </row>
     <row r="91" spans="2:7" ht="36.75" hidden="1" customHeight="1">
       <c r="B91" s="77" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C91" s="26"/>
       <c r="D91" s="26"/>
       <c r="E91" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>179</v>
@@ -9034,12 +9131,12 @@
     </row>
     <row r="95" spans="2:7" ht="64.7" hidden="1" customHeight="1">
       <c r="B95" s="77" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C95" s="26"/>
       <c r="D95" s="26"/>
       <c r="E95" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>179</v>
@@ -9050,12 +9147,12 @@
     </row>
     <row r="96" spans="2:7" ht="64.7" hidden="1" customHeight="1">
       <c r="B96" s="77" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C96" s="26"/>
       <c r="D96" s="26"/>
       <c r="E96" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>179</v>
@@ -9066,12 +9163,12 @@
     </row>
     <row r="97" spans="2:7" ht="64.7" hidden="1" customHeight="1">
       <c r="B97" s="77" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
       <c r="E97" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>179</v>
@@ -9082,12 +9179,12 @@
     </row>
     <row r="98" spans="2:7" ht="106.7" hidden="1" customHeight="1">
       <c r="B98" s="77" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
       <c r="E98" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>191</v>
@@ -9098,16 +9195,16 @@
     </row>
     <row r="99" spans="2:7" ht="106.7" hidden="1" customHeight="1">
       <c r="B99" s="77" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C99" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>193</v>
@@ -9118,36 +9215,36 @@
     </row>
     <row r="100" spans="2:7" ht="106.7" hidden="1" customHeight="1">
       <c r="B100" s="77" t="s">
+        <v>488</v>
+      </c>
+      <c r="C100" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D100" s="93" t="s">
+        <v>839</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="F100" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="C100" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D100" s="93" t="s">
-        <v>848</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F100" s="10" t="s">
+      <c r="G100" s="11" t="s">
         <v>490</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="101" spans="2:7" ht="106.7" hidden="1" customHeight="1">
       <c r="B101" s="77" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C101" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>195</v>
@@ -9158,16 +9255,16 @@
     </row>
     <row r="102" spans="2:7" ht="106.7" hidden="1" customHeight="1">
       <c r="B102" s="77" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C102" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D102" s="103" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>197</v>
@@ -9178,16 +9275,16 @@
     </row>
     <row r="103" spans="2:7" ht="106.7" hidden="1" customHeight="1">
       <c r="B103" s="77" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="D103" s="93" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>199</v>
@@ -9198,73 +9295,73 @@
     </row>
     <row r="104" spans="2:7" ht="106.7" hidden="1" customHeight="1">
       <c r="B104" s="77" t="s">
+        <v>491</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>842</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>842</v>
+      </c>
+      <c r="E104" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="C104" s="26" t="s">
-        <v>851</v>
-      </c>
-      <c r="D104" s="26" t="s">
-        <v>851</v>
-      </c>
-      <c r="E104" s="10" t="s">
+      <c r="F104" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="F104" s="10" t="s">
+      <c r="G104" s="10" t="s">
         <v>494</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="105" spans="2:7" ht="106.7" hidden="1" customHeight="1">
       <c r="B105" s="77" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F105" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="G105" s="11" t="s">
         <v>498</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="106" spans="2:7" ht="106.7" hidden="1" customHeight="1">
       <c r="B106" s="77" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C106" s="104" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="D106" s="104" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="E106" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F106" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="F106" s="10" t="s">
+      <c r="G106" s="11" t="s">
         <v>502</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="107" spans="2:7" ht="92.85" hidden="1" customHeight="1">
       <c r="B107" s="77" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C107" s="104" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="D107" s="104" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>201</v>
@@ -9278,7 +9375,7 @@
     </row>
     <row r="108" spans="2:7" ht="92.85" hidden="1" customHeight="1">
       <c r="B108" s="77" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C108" s="29"/>
       <c r="D108" s="29"/>
@@ -9294,27 +9391,27 @@
     </row>
     <row r="109" spans="2:7" ht="92.85" hidden="1" customHeight="1">
       <c r="B109" s="77" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C109" s="26"/>
       <c r="D109" s="26"/>
       <c r="E109" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F109" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="G109" s="11" t="s">
         <v>505</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="110" spans="2:7" ht="92.85" hidden="1" customHeight="1">
       <c r="B110" s="77" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C110" s="26"/>
       <c r="D110" s="26" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>207</v>
@@ -9328,11 +9425,11 @@
     </row>
     <row r="111" spans="2:7" ht="92.85" hidden="1" customHeight="1">
       <c r="B111" s="77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C111" s="26"/>
       <c r="D111" s="26" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>210</v>
@@ -9346,14 +9443,14 @@
     </row>
     <row r="112" spans="2:7" ht="92.85" hidden="1" customHeight="1">
       <c r="B112" s="77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C112" s="26"/>
       <c r="D112" s="26" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>213</v>
@@ -9364,163 +9461,163 @@
     </row>
     <row r="113" spans="1:7" ht="92.85" hidden="1" customHeight="1">
       <c r="B113" s="77" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C113" s="26"/>
       <c r="D113" s="26" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F113" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="G113" s="11" t="s">
         <v>509</v>
-      </c>
-      <c r="G113" s="11" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="92.85" hidden="1" customHeight="1">
       <c r="B114" s="77" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C114" s="77"/>
       <c r="D114" s="77"/>
       <c r="E114" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="92.85" hidden="1" customHeight="1">
       <c r="B115" s="77" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C115" s="26"/>
       <c r="D115" s="26"/>
       <c r="E115" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="F115" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="F115" s="10" t="s">
+      <c r="G115" s="11" t="s">
         <v>516</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="36.950000000000003" hidden="1" customHeight="1">
       <c r="B116" s="77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C116" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="E116" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G116" s="11" t="s">
         <v>364</v>
-      </c>
-      <c r="F116" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="45" hidden="1">
       <c r="B117" s="77" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C117" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>854</v>
-      </c>
-      <c r="E117" s="122" t="s">
-        <v>221</v>
-      </c>
-      <c r="F117" s="122" t="s">
-        <v>221</v>
-      </c>
-      <c r="G117" s="143" t="s">
-        <v>221</v>
+        <v>845</v>
+      </c>
+      <c r="E117" s="124" t="s">
+        <v>220</v>
+      </c>
+      <c r="F117" s="124" t="s">
+        <v>220</v>
+      </c>
+      <c r="G117" s="145" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="45" hidden="1">
       <c r="B118" s="77" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C118" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>855</v>
-      </c>
-      <c r="E118" s="123"/>
-      <c r="F118" s="123"/>
-      <c r="G118" s="144"/>
+        <v>846</v>
+      </c>
+      <c r="E118" s="125"/>
+      <c r="F118" s="125"/>
+      <c r="G118" s="146"/>
     </row>
     <row r="119" spans="1:7" ht="45" hidden="1">
       <c r="B119" s="77" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C119" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>855</v>
-      </c>
-      <c r="E119" s="123"/>
-      <c r="F119" s="123"/>
-      <c r="G119" s="144"/>
+        <v>846</v>
+      </c>
+      <c r="E119" s="125"/>
+      <c r="F119" s="125"/>
+      <c r="G119" s="146"/>
     </row>
     <row r="120" spans="1:7" ht="45" hidden="1">
       <c r="B120" s="77" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C120" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>856</v>
-      </c>
-      <c r="E120" s="123"/>
-      <c r="F120" s="123"/>
-      <c r="G120" s="144"/>
+        <v>847</v>
+      </c>
+      <c r="E120" s="125"/>
+      <c r="F120" s="125"/>
+      <c r="G120" s="146"/>
     </row>
     <row r="121" spans="1:7" ht="45" hidden="1">
       <c r="B121" s="77" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C121" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>857</v>
-      </c>
-      <c r="E121" s="123"/>
-      <c r="F121" s="123"/>
-      <c r="G121" s="144"/>
+        <v>848</v>
+      </c>
+      <c r="E121" s="125"/>
+      <c r="F121" s="125"/>
+      <c r="G121" s="146"/>
     </row>
     <row r="122" spans="1:7" ht="45" hidden="1">
       <c r="B122" s="77" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C122" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>858</v>
-      </c>
-      <c r="E122" s="124"/>
-      <c r="F122" s="124"/>
-      <c r="G122" s="145"/>
+        <v>849</v>
+      </c>
+      <c r="E122" s="126"/>
+      <c r="F122" s="126"/>
+      <c r="G122" s="147"/>
     </row>
     <row r="123" spans="1:7" ht="15" hidden="1">
       <c r="B123" s="77"/>
@@ -9528,7 +9625,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
@@ -9537,10 +9634,10 @@
     <row r="124" spans="1:7" ht="15" hidden="1">
       <c r="B124" s="77"/>
       <c r="C124" s="99" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="D124" s="99" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
@@ -9549,10 +9646,10 @@
     <row r="125" spans="1:7" ht="15" hidden="1">
       <c r="B125" s="77"/>
       <c r="C125" s="99" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="D125" s="99" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
@@ -9587,12 +9684,12 @@
       <c r="B129" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="C129" s="147" t="s">
-        <v>894</v>
-      </c>
-      <c r="D129" s="148"/>
-      <c r="E129" s="148"/>
-      <c r="F129" s="149"/>
+      <c r="C129" s="149" t="s">
+        <v>885</v>
+      </c>
+      <c r="D129" s="150"/>
+      <c r="E129" s="150"/>
+      <c r="F129" s="151"/>
       <c r="G129" s="11"/>
     </row>
     <row r="130" spans="1:7" ht="22.7" customHeight="1">
@@ -9619,16 +9716,16 @@
         <v>1</v>
       </c>
       <c r="D131" s="26" t="s">
-        <v>848</v>
-      </c>
-      <c r="E131" s="120" t="s">
+        <v>839</v>
+      </c>
+      <c r="E131" s="122" t="s">
+        <v>922</v>
+      </c>
+      <c r="F131" s="122" t="s">
+        <v>692</v>
+      </c>
+      <c r="G131" s="140" t="s">
         <v>218</v>
-      </c>
-      <c r="F131" s="120" t="s">
-        <v>698</v>
-      </c>
-      <c r="G131" s="138" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="36.75" customHeight="1">
@@ -9636,39 +9733,39 @@
         <v>1.2</v>
       </c>
       <c r="B132" s="77" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C132" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D132" s="26" t="s">
-        <v>848</v>
-      </c>
-      <c r="E132" s="131"/>
-      <c r="F132" s="121"/>
-      <c r="G132" s="139"/>
+        <v>839</v>
+      </c>
+      <c r="E132" s="133"/>
+      <c r="F132" s="123"/>
+      <c r="G132" s="141"/>
     </row>
     <row r="133" spans="1:7" ht="22.7" customHeight="1">
       <c r="A133" s="44">
         <v>1.3</v>
       </c>
       <c r="B133" s="77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C133" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D133" s="26" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="E133" s="47" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F133" s="49" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="G133" s="49" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="22.7" customHeight="1">
@@ -9676,22 +9773,22 @@
         <v>1.4</v>
       </c>
       <c r="B134" s="77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C134" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D134" s="26" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="E134" s="48" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="F134" s="47" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G134" s="50" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="22.7" customHeight="1">
@@ -9699,7 +9796,7 @@
         <v>1.5</v>
       </c>
       <c r="B135" s="77" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C135" s="26" t="b">
         <v>0</v>
@@ -9708,13 +9805,13 @@
         <v>0</v>
       </c>
       <c r="E135" s="47" t="s">
-        <v>703</v>
+        <v>921</v>
       </c>
       <c r="F135" s="49" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G135" s="50" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="22.7" customHeight="1">
@@ -9722,18 +9819,18 @@
         <v>1.6</v>
       </c>
       <c r="B136" s="77" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C136" s="26"/>
       <c r="D136" s="26"/>
-      <c r="E136" s="153" t="s">
-        <v>706</v>
-      </c>
-      <c r="F136" s="155" t="s">
-        <v>707</v>
-      </c>
-      <c r="G136" s="132" t="s">
-        <v>702</v>
+      <c r="E136" s="155" t="s">
+        <v>699</v>
+      </c>
+      <c r="F136" s="157" t="s">
+        <v>700</v>
+      </c>
+      <c r="G136" s="134" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="36.75" customHeight="1">
@@ -9741,13 +9838,13 @@
         <v>1.7</v>
       </c>
       <c r="B137" s="77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C137" s="26"/>
       <c r="D137" s="26"/>
-      <c r="E137" s="154"/>
-      <c r="F137" s="156"/>
-      <c r="G137" s="133"/>
+      <c r="E137" s="156"/>
+      <c r="F137" s="158"/>
+      <c r="G137" s="135"/>
     </row>
     <row r="138" spans="1:7" ht="22.7" customHeight="1">
       <c r="B138" s="84"/>
@@ -9762,7 +9859,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C139" s="26"/>
       <c r="D139" s="26"/>
@@ -9774,59 +9871,59 @@
       <c r="A140" s="44">
         <v>2.1</v>
       </c>
-      <c r="B140" s="125" t="s">
-        <v>227</v>
+      <c r="B140" s="127" t="s">
+        <v>226</v>
       </c>
       <c r="C140" s="26"/>
       <c r="D140" s="26" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G140" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="22.7" customHeight="1">
       <c r="A141" s="44">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B141" s="126"/>
+      <c r="B141" s="128"/>
       <c r="C141" s="26"/>
       <c r="D141" s="26" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G141" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="22.7" customHeight="1">
       <c r="A142" s="44">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B142" s="126"/>
+      <c r="B142" s="128"/>
       <c r="C142" s="26"/>
       <c r="D142" s="26" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G142" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="22.7" customHeight="1">
@@ -9834,20 +9931,20 @@
         <v>2.4</v>
       </c>
       <c r="B143" s="77" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C143" s="26"/>
       <c r="D143" s="26" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G143" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="22.7" customHeight="1">
@@ -9863,7 +9960,7 @@
         <v>3</v>
       </c>
       <c r="B145" s="79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C145" s="26"/>
       <c r="D145" s="26"/>
@@ -9876,22 +9973,22 @@
         <v>3.1</v>
       </c>
       <c r="B146" s="77" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C146" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D146" s="26" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="E146" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F146" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F146" s="10" t="s">
+      <c r="G146" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="36.75" customHeight="1">
@@ -9899,22 +9996,22 @@
         <v>3.2</v>
       </c>
       <c r="B147" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="C147" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>845</v>
+      </c>
+      <c r="E147" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C147" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D147" s="26" t="s">
-        <v>854</v>
-      </c>
-      <c r="E147" s="10" t="s">
-        <v>233</v>
-      </c>
       <c r="F147" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G147" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="36.75" customHeight="1">
@@ -9922,22 +10019,22 @@
         <v>3.3</v>
       </c>
       <c r="B148" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="C148" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>846</v>
+      </c>
+      <c r="E148" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C148" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D148" s="26" t="s">
-        <v>855</v>
-      </c>
-      <c r="E148" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="F148" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G148" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="36.75" customHeight="1">
@@ -9945,22 +10042,22 @@
         <v>3.4</v>
       </c>
       <c r="B149" s="77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C149" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D149" s="26" t="s">
+        <v>846</v>
+      </c>
+      <c r="E149" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C149" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D149" s="26" t="s">
-        <v>855</v>
-      </c>
-      <c r="E149" s="10" t="s">
-        <v>237</v>
-      </c>
       <c r="F149" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G149" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="50.85" customHeight="1">
@@ -9968,22 +10065,22 @@
         <v>3.5</v>
       </c>
       <c r="B150" s="77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C150" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D150" s="26" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="F150" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G150" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="G150" s="11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="45">
@@ -9991,22 +10088,22 @@
         <v>3.6</v>
       </c>
       <c r="B151" s="77" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C151" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D151" s="26" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="F151" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G151" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="G151" s="11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="22.7" customHeight="1">
@@ -10014,22 +10111,22 @@
         <v>3.7</v>
       </c>
       <c r="B152" s="77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C152" s="26" t="b">
         <v>0</v>
       </c>
       <c r="D152" s="26" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F152" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G152" s="11" t="s">
         <v>239</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="36.75" customHeight="1">
@@ -10037,22 +10134,22 @@
         <v>3.8</v>
       </c>
       <c r="B153" s="77" t="s">
+        <v>521</v>
+      </c>
+      <c r="C153" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>839</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="G153" s="11" t="s">
         <v>522</v>
-      </c>
-      <c r="C153" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D153" s="26" t="s">
-        <v>848</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>714</v>
-      </c>
-      <c r="F153" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="36.75" customHeight="1">
@@ -10060,91 +10157,91 @@
         <v>3.9</v>
       </c>
       <c r="B154" s="77" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C154" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="90">
       <c r="A155" s="115" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B155" s="77" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C155" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D155" s="26" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="36.75" customHeight="1">
       <c r="A156" s="115" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B156" s="77" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C156" s="26" t="b">
         <v>0</v>
       </c>
       <c r="D156" s="26" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="157" spans="1:7" s="31" customFormat="1" ht="36.75" customHeight="1">
       <c r="A157" s="115" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C157" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D157" s="26" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="22.7" customHeight="1">
@@ -10173,7 +10270,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B160" s="79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="26"/>
@@ -10183,255 +10280,255 @@
     </row>
     <row r="161" spans="1:7" ht="36.75" customHeight="1">
       <c r="A161" s="44" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B161" s="86" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C161" s="26" t="b">
         <v>0</v>
       </c>
       <c r="D161" s="26" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="E161" s="51" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="36.75" customHeight="1">
       <c r="A162" s="44" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B162" s="86" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C162" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D162" s="26" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="E162" s="51" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="36.75" customHeight="1">
       <c r="A163" s="44" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B163" s="86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C163" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D163" s="26" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="E163" s="51" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="F163" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G163" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="G163" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="36.75" customHeight="1">
       <c r="A164" s="44" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B164" s="86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C164" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D164" s="26" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="E164" s="51" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F164" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G164" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="36.75" customHeight="1">
       <c r="A165" s="44" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B165" s="86" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C165" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D165" s="26" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="E165" s="51" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="F165" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G165" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="G165" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="36.75" customHeight="1">
       <c r="A166" s="44" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B166" s="86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C166" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D166" s="26" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="E166" s="51" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F166" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G166" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="36.75" customHeight="1">
       <c r="A167" s="44" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B167" s="86" t="s">
-        <v>929</v>
-      </c>
-      <c r="C167" s="105" t="b">
+        <v>918</v>
+      </c>
+      <c r="C167" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="D167" s="105" t="s">
-        <v>914</v>
-      </c>
-      <c r="E167" s="51" t="s">
-        <v>726</v>
-      </c>
-      <c r="F167" s="10" t="s">
+      <c r="D167" s="26" t="s">
+        <v>905</v>
+      </c>
+      <c r="E167" s="121" t="s">
+        <v>721</v>
+      </c>
+      <c r="F167" s="121" t="s">
+        <v>242</v>
+      </c>
+      <c r="G167" s="120" t="s">
         <v>243</v>
-      </c>
-      <c r="G167" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="36.75" customHeight="1">
       <c r="A168" s="44" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B168" s="86" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C168" s="105" t="b">
         <v>1</v>
       </c>
       <c r="D168" s="105" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="E168" s="51" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F168" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G168" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="36.75" customHeight="1">
       <c r="A169" s="44" t="s">
-        <v>566</v>
+        <v>920</v>
       </c>
       <c r="B169" s="86" t="s">
-        <v>928</v>
-      </c>
-      <c r="C169" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="D169" s="26" t="s">
-        <v>856</v>
-      </c>
-      <c r="E169" s="51" t="s">
-        <v>728</v>
-      </c>
-      <c r="F169" s="10" t="s">
+        <v>919</v>
+      </c>
+      <c r="C169" s="105" t="b">
+        <v>1</v>
+      </c>
+      <c r="D169" s="105" t="s">
+        <v>847</v>
+      </c>
+      <c r="E169" s="121" t="s">
+        <v>719</v>
+      </c>
+      <c r="F169" s="121" t="s">
+        <v>242</v>
+      </c>
+      <c r="G169" s="120" t="s">
         <v>243</v>
-      </c>
-      <c r="G169" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="36.75" customHeight="1">
       <c r="A170" s="44" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B170" s="86" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C170" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D170" s="26" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="E170" s="51" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F170" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G170" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="G170" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="36.75" customHeight="1">
       <c r="A171" s="44" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C171" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D171" s="26" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="F171" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G171" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="G171" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="22.7" customHeight="1">
@@ -10439,7 +10536,7 @@
         <v>4.2</v>
       </c>
       <c r="B172" s="79" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C172" s="18"/>
       <c r="D172" s="18"/>
@@ -10449,171 +10546,171 @@
     </row>
     <row r="173" spans="1:7" ht="36.75" customHeight="1">
       <c r="A173" s="44" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B173" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C173" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D173" s="26" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="G173" s="52" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="36.75" customHeight="1">
       <c r="A174" s="44" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B174" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C174" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D174" s="26" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F174" s="52" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="G174" s="53" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="36.75" customHeight="1">
       <c r="A175" s="44" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B175" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C175" s="99" t="b">
         <v>1</v>
       </c>
       <c r="D175" s="99" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="F175" s="52" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="36.75" customHeight="1">
       <c r="A176" s="44" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B176" s="77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C176" s="99" t="b">
         <v>1</v>
       </c>
-      <c r="D176" s="99" t="s">
-        <v>919</v>
+      <c r="D176" s="99" t="b">
+        <v>1</v>
       </c>
       <c r="E176" s="53" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="F176" s="53" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="G176" s="54" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="36.75" customHeight="1">
       <c r="A177" s="44" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B177" s="77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C177" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D177" s="26" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="F177" s="53" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="G177" s="54" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="36.75" customHeight="1">
       <c r="A178" s="44" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B178" s="77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C178" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D178" s="26" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="F178" s="53" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="G178" s="54" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="36.75" customHeight="1">
       <c r="A179" s="44" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B179" s="77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C179" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D179" s="26" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F179" s="53" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="G179" s="54" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="50.85" customHeight="1">
       <c r="A180" s="44" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B180" s="77" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C180" s="26" t="b">
         <v>1</v>
@@ -10622,44 +10719,44 @@
         <v>1</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="F180" s="53" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="50.85" customHeight="1">
       <c r="A181" s="44" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C181" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D181" s="26" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="F181" s="52" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="34" customFormat="1" ht="50.85" customHeight="1">
       <c r="A182" s="44" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B182" s="87" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C182" s="26" t="b">
         <v>1</v>
@@ -10668,13 +10765,13 @@
         <v>1</v>
       </c>
       <c r="E182" s="32" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F182" s="52" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G182" s="33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="22.7" customHeight="1">
@@ -10682,7 +10779,7 @@
         <v>4.3</v>
       </c>
       <c r="B183" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C183" s="18"/>
       <c r="D183" s="18"/>
@@ -10692,140 +10789,140 @@
     </row>
     <row r="184" spans="1:7" ht="36.75" customHeight="1">
       <c r="A184" s="44" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B184" s="77" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C184" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="D184" s="26">
-        <v>63</v>
+      <c r="D184" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>755</v>
+        <v>923</v>
       </c>
       <c r="F184" s="56" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G184" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="36.75" customHeight="1">
       <c r="A185" s="44" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B185" s="77" t="s">
-        <v>262</v>
-      </c>
-      <c r="C185" s="26">
-        <v>63</v>
-      </c>
-      <c r="D185" s="26">
-        <v>63</v>
+        <v>261</v>
+      </c>
+      <c r="C185" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D185" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>532</v>
+        <v>924</v>
       </c>
       <c r="F185" s="56" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G185" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="36.75" customHeight="1">
       <c r="A186" s="44" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B186" s="77" t="s">
-        <v>263</v>
-      </c>
-      <c r="C186" s="26">
-        <v>63</v>
-      </c>
-      <c r="D186" s="26">
-        <v>63</v>
+        <v>262</v>
+      </c>
+      <c r="C186" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D186" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>533</v>
+        <v>925</v>
       </c>
       <c r="F186" s="56" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G186" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="36.75" customHeight="1">
       <c r="A187" s="44" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B187" s="77" t="s">
-        <v>530</v>
-      </c>
-      <c r="C187" s="26">
-        <v>63</v>
-      </c>
-      <c r="D187" s="26">
-        <v>63</v>
+        <v>529</v>
+      </c>
+      <c r="C187" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D187" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>534</v>
+        <v>926</v>
       </c>
       <c r="F187" s="56" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G187" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="36.75" customHeight="1">
       <c r="A188" s="44" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B188" s="77" t="s">
-        <v>264</v>
-      </c>
-      <c r="C188" s="26">
-        <v>63</v>
-      </c>
-      <c r="D188" s="26">
-        <v>63</v>
+        <v>263</v>
+      </c>
+      <c r="C188" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D188" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>535</v>
+        <v>927</v>
       </c>
       <c r="F188" s="56" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G188" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="36.75" customHeight="1">
       <c r="A189" s="44" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B189" s="77" t="s">
-        <v>531</v>
-      </c>
-      <c r="C189" s="26">
-        <v>63</v>
-      </c>
-      <c r="D189" s="26">
-        <v>63</v>
+        <v>530</v>
+      </c>
+      <c r="C189" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D189" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>753</v>
+        <v>928</v>
       </c>
       <c r="F189" s="56" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G189" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="22.7" customHeight="1">
@@ -10851,151 +10948,151 @@
     </row>
     <row r="192" spans="1:7" ht="92.85" customHeight="1">
       <c r="A192" s="44" t="s">
-        <v>585</v>
-      </c>
-      <c r="B192" s="125" t="s">
+        <v>579</v>
+      </c>
+      <c r="B192" s="127" t="s">
+        <v>264</v>
+      </c>
+      <c r="C192" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D192" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="F192" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C192" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D192" s="26" t="s">
-        <v>918</v>
-      </c>
-      <c r="E192" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="F192" s="10" t="s">
+      <c r="G192" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="G192" s="11" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="92.85" customHeight="1">
       <c r="A193" s="44" t="s">
-        <v>586</v>
-      </c>
-      <c r="B193" s="126"/>
+        <v>580</v>
+      </c>
+      <c r="B193" s="128"/>
       <c r="C193" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="D193" s="26" t="s">
-        <v>919</v>
+      <c r="D193" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="F193" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="G193" s="11" t="s">
         <v>268</v>
-      </c>
-      <c r="G193" s="11" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="92.85" customHeight="1">
       <c r="A194" s="44" t="s">
-        <v>587</v>
-      </c>
-      <c r="B194" s="126"/>
+        <v>581</v>
+      </c>
+      <c r="B194" s="128"/>
       <c r="C194" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D194" s="26" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="F194" s="10" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="92.85" customHeight="1">
       <c r="A195" s="44" t="s">
-        <v>588</v>
-      </c>
-      <c r="B195" s="126"/>
+        <v>582</v>
+      </c>
+      <c r="B195" s="128"/>
       <c r="C195" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D195" s="26" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F195" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G195" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="G195" s="11" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="92.85" customHeight="1">
       <c r="A196" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="B196" s="126"/>
+        <v>583</v>
+      </c>
+      <c r="B196" s="128"/>
       <c r="C196" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D196" s="26" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="F196" s="10" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="92.85" customHeight="1">
       <c r="A197" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="B197" s="126"/>
+        <v>584</v>
+      </c>
+      <c r="B197" s="128"/>
       <c r="C197" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D197" s="26" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="F197" s="10" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="G197" s="10" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="106.7" customHeight="1">
       <c r="A198" s="44" t="s">
-        <v>591</v>
-      </c>
-      <c r="B198" s="126"/>
+        <v>585</v>
+      </c>
+      <c r="B198" s="128"/>
       <c r="C198" s="26" t="b">
         <v>0</v>
       </c>
       <c r="D198" s="26" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="F198" s="10" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="G198" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15">
@@ -11008,137 +11105,137 @@
     </row>
     <row r="200" spans="1:7" ht="64.7" customHeight="1">
       <c r="A200" s="44" t="s">
-        <v>592</v>
-      </c>
-      <c r="B200" s="127" t="s">
-        <v>274</v>
+        <v>586</v>
+      </c>
+      <c r="B200" s="129" t="s">
+        <v>273</v>
       </c>
       <c r="C200" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D200" s="26" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="G200" s="10" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="92.85" customHeight="1">
       <c r="A201" s="44" t="s">
-        <v>593</v>
-      </c>
-      <c r="B201" s="128"/>
+        <v>587</v>
+      </c>
+      <c r="B201" s="130"/>
       <c r="C201" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="D201" s="26" t="s">
-        <v>854</v>
+      <c r="D201" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="G201" s="10" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="92.85" customHeight="1">
       <c r="A202" s="44" t="s">
-        <v>594</v>
-      </c>
-      <c r="B202" s="128"/>
+        <v>588</v>
+      </c>
+      <c r="B202" s="130"/>
       <c r="C202" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="F202" s="10" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="G202" s="10" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="92.85" customHeight="1">
       <c r="A203" s="44" t="s">
-        <v>595</v>
-      </c>
-      <c r="B203" s="128"/>
+        <v>589</v>
+      </c>
+      <c r="B203" s="130"/>
       <c r="C203" s="26" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="D203" s="26" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F203" s="10" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G203" s="10" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="92.85" customHeight="1">
       <c r="A204" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="B204" s="128"/>
-      <c r="C204" s="26" t="s">
-        <v>922</v>
+        <v>590</v>
+      </c>
+      <c r="B204" s="130"/>
+      <c r="C204" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>922</v>
+        <v>903</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="F204" s="10" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="G204" s="10" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="92.85" customHeight="1">
       <c r="A205" s="44" t="s">
-        <v>597</v>
-      </c>
-      <c r="B205" s="128"/>
+        <v>591</v>
+      </c>
+      <c r="B205" s="130"/>
       <c r="C205" s="26" t="b">
         <v>1</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G205" s="10" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="106.7" customHeight="1">
       <c r="A206" s="44" t="s">
-        <v>598</v>
-      </c>
-      <c r="B206" s="146"/>
+        <v>592</v>
+      </c>
+      <c r="B206" s="148"/>
       <c r="C206" s="26" t="b">
         <v>0</v>
       </c>
@@ -11146,13 +11243,13 @@
         <v>0</v>
       </c>
       <c r="E206" s="57" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F206" s="57" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G206" s="10" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="15">
@@ -11165,32 +11262,32 @@
     </row>
     <row r="208" spans="1:7" ht="64.7" customHeight="1">
       <c r="A208" s="44" t="s">
-        <v>599</v>
-      </c>
-      <c r="B208" s="125" t="s">
+        <v>593</v>
+      </c>
+      <c r="B208" s="127" t="s">
+        <v>274</v>
+      </c>
+      <c r="C208" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D208" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E208" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="F208" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C208" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D208" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E208" s="10" t="s">
-        <v>771</v>
-      </c>
-      <c r="F208" s="10" t="s">
+      <c r="G208" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="G208" s="11" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="64.7" customHeight="1">
       <c r="A209" s="44" t="s">
-        <v>600</v>
-      </c>
-      <c r="B209" s="126"/>
+        <v>594</v>
+      </c>
+      <c r="B209" s="128"/>
       <c r="C209" s="26" t="b">
         <v>1</v>
       </c>
@@ -11198,20 +11295,20 @@
         <v>1</v>
       </c>
       <c r="E209" s="10" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="F209" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G209" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="G209" s="11" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="64.7" customHeight="1">
       <c r="A210" s="44" t="s">
-        <v>601</v>
-      </c>
-      <c r="B210" s="126"/>
+        <v>595</v>
+      </c>
+      <c r="B210" s="128"/>
       <c r="C210" s="26" t="b">
         <v>1</v>
       </c>
@@ -11219,20 +11316,20 @@
         <v>1</v>
       </c>
       <c r="E210" s="10" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="F210" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G210" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="G210" s="11" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="64.7" customHeight="1">
       <c r="A211" s="44" t="s">
-        <v>602</v>
-      </c>
-      <c r="B211" s="126"/>
+        <v>596</v>
+      </c>
+      <c r="B211" s="128"/>
       <c r="C211" s="26" t="b">
         <v>1</v>
       </c>
@@ -11240,20 +11337,20 @@
         <v>1</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F211" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="G211" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="G211" s="11" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="64.7" customHeight="1">
       <c r="A212" s="44" t="s">
-        <v>603</v>
-      </c>
-      <c r="B212" s="126"/>
+        <v>597</v>
+      </c>
+      <c r="B212" s="128"/>
       <c r="C212" s="26" t="b">
         <v>1</v>
       </c>
@@ -11261,20 +11358,20 @@
         <v>1</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="F212" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="G212" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="G212" s="11" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="64.7" customHeight="1">
       <c r="A213" s="44" t="s">
-        <v>604</v>
-      </c>
-      <c r="B213" s="126"/>
+        <v>598</v>
+      </c>
+      <c r="B213" s="128"/>
       <c r="C213" s="26" t="b">
         <v>1</v>
       </c>
@@ -11282,20 +11379,20 @@
         <v>1</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F213" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G213" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="G213" s="11" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="64.7" customHeight="1">
       <c r="A214" s="44" t="s">
-        <v>605</v>
-      </c>
-      <c r="B214" s="126"/>
+        <v>599</v>
+      </c>
+      <c r="B214" s="128"/>
       <c r="C214" s="26" t="b">
         <v>1</v>
       </c>
@@ -11303,20 +11400,20 @@
         <v>1</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="F214" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G214" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="G214" s="11" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="64.7" customHeight="1">
       <c r="A215" s="44" t="s">
-        <v>606</v>
-      </c>
-      <c r="B215" s="126"/>
+        <v>600</v>
+      </c>
+      <c r="B215" s="128"/>
       <c r="C215" s="26" t="b">
         <v>1</v>
       </c>
@@ -11324,20 +11421,20 @@
         <v>1</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="F215" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G215" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="G215" s="11" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="64.7" customHeight="1">
       <c r="A216" s="44" t="s">
-        <v>607</v>
-      </c>
-      <c r="B216" s="126"/>
+        <v>601</v>
+      </c>
+      <c r="B216" s="128"/>
       <c r="C216" s="26" t="b">
         <v>1</v>
       </c>
@@ -11345,13 +11442,13 @@
         <v>1</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="F216" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G216" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="G216" s="11" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="22.7" customHeight="1">
@@ -11364,10 +11461,10 @@
     </row>
     <row r="218" spans="1:7" ht="22.7" customHeight="1">
       <c r="A218" s="44" t="s">
-        <v>608</v>
-      </c>
-      <c r="B218" s="150" t="s">
-        <v>625</v>
+        <v>602</v>
+      </c>
+      <c r="B218" s="152" t="s">
+        <v>619</v>
       </c>
       <c r="C218" s="26" t="b">
         <v>0</v>
@@ -11376,20 +11473,20 @@
         <v>0</v>
       </c>
       <c r="E218" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F218" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F218" s="10" t="s">
+      <c r="G218" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="G218" s="11" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="36.75" customHeight="1">
       <c r="A219" s="44" t="s">
-        <v>609</v>
-      </c>
-      <c r="B219" s="151"/>
+        <v>603</v>
+      </c>
+      <c r="B219" s="153"/>
       <c r="C219" s="26" t="b">
         <v>0</v>
       </c>
@@ -11397,20 +11494,20 @@
         <v>0</v>
       </c>
       <c r="E219" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="F219" s="124" t="s">
+        <v>771</v>
+      </c>
+      <c r="G219" s="11" t="s">
         <v>297</v>
-      </c>
-      <c r="F219" s="122" t="s">
-        <v>780</v>
-      </c>
-      <c r="G219" s="11" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="36.75" customHeight="1">
       <c r="A220" s="44" t="s">
-        <v>610</v>
-      </c>
-      <c r="B220" s="151"/>
+        <v>604</v>
+      </c>
+      <c r="B220" s="153"/>
       <c r="C220" s="26" t="b">
         <v>0</v>
       </c>
@@ -11418,18 +11515,18 @@
         <v>0</v>
       </c>
       <c r="E220" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="F220" s="125"/>
+      <c r="G220" s="58" t="s">
         <v>299</v>
-      </c>
-      <c r="F220" s="123"/>
-      <c r="G220" s="58" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="36.75" customHeight="1">
       <c r="A221" s="44" t="s">
-        <v>611</v>
-      </c>
-      <c r="B221" s="151"/>
+        <v>605</v>
+      </c>
+      <c r="B221" s="153"/>
       <c r="C221" s="26" t="b">
         <v>0</v>
       </c>
@@ -11437,18 +11534,18 @@
         <v>0</v>
       </c>
       <c r="E221" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="F221" s="125"/>
+      <c r="G221" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="F221" s="123"/>
-      <c r="G221" s="11" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="36.75" customHeight="1">
       <c r="A222" s="44" t="s">
-        <v>612</v>
-      </c>
-      <c r="B222" s="151"/>
+        <v>606</v>
+      </c>
+      <c r="B222" s="153"/>
       <c r="C222" s="26" t="b">
         <v>0</v>
       </c>
@@ -11456,18 +11553,18 @@
         <v>0</v>
       </c>
       <c r="E222" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="F222" s="125"/>
+      <c r="G222" s="11" t="s">
         <v>303</v>
-      </c>
-      <c r="F222" s="123"/>
-      <c r="G222" s="11" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="36.75" customHeight="1">
       <c r="A223" s="44" t="s">
-        <v>613</v>
-      </c>
-      <c r="B223" s="151"/>
+        <v>607</v>
+      </c>
+      <c r="B223" s="153"/>
       <c r="C223" s="26" t="b">
         <v>0</v>
       </c>
@@ -11475,18 +11572,18 @@
         <v>0</v>
       </c>
       <c r="E223" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="F223" s="125"/>
+      <c r="G223" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="F223" s="123"/>
-      <c r="G223" s="11" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="36.75" customHeight="1">
       <c r="A224" s="44" t="s">
-        <v>614</v>
-      </c>
-      <c r="B224" s="151"/>
+        <v>608</v>
+      </c>
+      <c r="B224" s="153"/>
       <c r="C224" s="26" t="b">
         <v>0</v>
       </c>
@@ -11494,18 +11591,18 @@
         <v>0</v>
       </c>
       <c r="E224" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="F224" s="125"/>
+      <c r="G224" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="F224" s="123"/>
-      <c r="G224" s="11" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="36.75" customHeight="1">
       <c r="A225" s="44" t="s">
-        <v>615</v>
-      </c>
-      <c r="B225" s="151"/>
+        <v>609</v>
+      </c>
+      <c r="B225" s="153"/>
       <c r="C225" s="26" t="b">
         <v>0</v>
       </c>
@@ -11513,18 +11610,18 @@
         <v>0</v>
       </c>
       <c r="E225" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="F225" s="125"/>
+      <c r="G225" s="11" t="s">
         <v>309</v>
-      </c>
-      <c r="F225" s="123"/>
-      <c r="G225" s="11" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="36.75" customHeight="1">
       <c r="A226" s="44" t="s">
-        <v>616</v>
-      </c>
-      <c r="B226" s="151"/>
+        <v>610</v>
+      </c>
+      <c r="B226" s="153"/>
       <c r="C226" s="26" t="b">
         <v>0</v>
       </c>
@@ -11532,18 +11629,18 @@
         <v>0</v>
       </c>
       <c r="E226" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="F226" s="125"/>
+      <c r="G226" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="F226" s="123"/>
-      <c r="G226" s="11" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="36.75" customHeight="1">
       <c r="A227" s="44" t="s">
-        <v>617</v>
-      </c>
-      <c r="B227" s="151"/>
+        <v>611</v>
+      </c>
+      <c r="B227" s="153"/>
       <c r="C227" s="26" t="b">
         <v>0</v>
       </c>
@@ -11551,18 +11648,18 @@
         <v>0</v>
       </c>
       <c r="E227" s="118" t="s">
+        <v>312</v>
+      </c>
+      <c r="F227" s="125"/>
+      <c r="G227" s="11" t="s">
         <v>313</v>
-      </c>
-      <c r="F227" s="123"/>
-      <c r="G227" s="11" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="36.75" customHeight="1">
       <c r="A228" s="44" t="s">
-        <v>618</v>
-      </c>
-      <c r="B228" s="151"/>
+        <v>612</v>
+      </c>
+      <c r="B228" s="153"/>
       <c r="C228" s="26" t="b">
         <v>0</v>
       </c>
@@ -11570,18 +11667,18 @@
         <v>0</v>
       </c>
       <c r="E228" s="119" t="s">
+        <v>314</v>
+      </c>
+      <c r="F228" s="125"/>
+      <c r="G228" s="11" t="s">
         <v>315</v>
-      </c>
-      <c r="F228" s="123"/>
-      <c r="G228" s="11" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="36.75" customHeight="1">
       <c r="A229" s="44" t="s">
-        <v>619</v>
-      </c>
-      <c r="B229" s="151"/>
+        <v>613</v>
+      </c>
+      <c r="B229" s="153"/>
       <c r="C229" s="26" t="b">
         <v>0</v>
       </c>
@@ -11589,18 +11686,18 @@
         <v>0</v>
       </c>
       <c r="E229" s="119" t="s">
+        <v>316</v>
+      </c>
+      <c r="F229" s="125"/>
+      <c r="G229" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="F229" s="123"/>
-      <c r="G229" s="11" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="36.75" customHeight="1">
       <c r="A230" s="44" t="s">
-        <v>620</v>
-      </c>
-      <c r="B230" s="151"/>
+        <v>614</v>
+      </c>
+      <c r="B230" s="153"/>
       <c r="C230" s="26" t="b">
         <v>0</v>
       </c>
@@ -11608,18 +11705,18 @@
         <v>0</v>
       </c>
       <c r="E230" s="119" t="s">
+        <v>318</v>
+      </c>
+      <c r="F230" s="125"/>
+      <c r="G230" s="11" t="s">
         <v>319</v>
-      </c>
-      <c r="F230" s="123"/>
-      <c r="G230" s="11" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="36.75" customHeight="1">
       <c r="A231" s="44" t="s">
-        <v>621</v>
-      </c>
-      <c r="B231" s="151"/>
+        <v>615</v>
+      </c>
+      <c r="B231" s="153"/>
       <c r="C231" s="26" t="b">
         <v>0</v>
       </c>
@@ -11627,18 +11724,18 @@
         <v>0</v>
       </c>
       <c r="E231" s="119" t="s">
+        <v>320</v>
+      </c>
+      <c r="F231" s="125"/>
+      <c r="G231" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="F231" s="123"/>
-      <c r="G231" s="11" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="36.75" customHeight="1">
       <c r="A232" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="B232" s="151"/>
+        <v>616</v>
+      </c>
+      <c r="B232" s="153"/>
       <c r="C232" s="26" t="b">
         <v>0</v>
       </c>
@@ -11646,18 +11743,18 @@
         <v>0</v>
       </c>
       <c r="E232" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="F232" s="125"/>
+      <c r="G232" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="F232" s="123"/>
-      <c r="G232" s="11" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="36.75" customHeight="1">
       <c r="A233" s="44" t="s">
-        <v>623</v>
-      </c>
-      <c r="B233" s="151"/>
+        <v>617</v>
+      </c>
+      <c r="B233" s="153"/>
       <c r="C233" s="26" t="b">
         <v>0</v>
       </c>
@@ -11665,18 +11762,18 @@
         <v>0</v>
       </c>
       <c r="E233" s="19" t="s">
-        <v>898</v>
-      </c>
-      <c r="F233" s="123"/>
+        <v>889</v>
+      </c>
+      <c r="F233" s="125"/>
       <c r="G233" s="11" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="36.75" customHeight="1">
       <c r="A234" s="44" t="s">
-        <v>624</v>
-      </c>
-      <c r="B234" s="151"/>
+        <v>618</v>
+      </c>
+      <c r="B234" s="153"/>
       <c r="C234" s="26" t="b">
         <v>0</v>
       </c>
@@ -11684,16 +11781,16 @@
         <v>0</v>
       </c>
       <c r="E234" s="63" t="s">
-        <v>896</v>
-      </c>
-      <c r="F234" s="123"/>
+        <v>887</v>
+      </c>
+      <c r="F234" s="125"/>
       <c r="G234" s="76"/>
     </row>
     <row r="235" spans="1:8" ht="36.75" customHeight="1">
       <c r="A235" s="44" t="s">
-        <v>897</v>
-      </c>
-      <c r="B235" s="152"/>
+        <v>888</v>
+      </c>
+      <c r="B235" s="154"/>
       <c r="C235" s="26" t="b">
         <v>0</v>
       </c>
@@ -11701,11 +11798,11 @@
         <v>0</v>
       </c>
       <c r="E235" s="19" t="s">
-        <v>895</v>
-      </c>
-      <c r="F235" s="124"/>
+        <v>886</v>
+      </c>
+      <c r="F235" s="126"/>
       <c r="G235" s="10" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="36.75" customHeight="1">
@@ -11719,32 +11816,32 @@
     </row>
     <row r="237" spans="1:8" ht="50.85" customHeight="1">
       <c r="A237" s="44" t="s">
-        <v>626</v>
-      </c>
-      <c r="B237" s="125" t="s">
+        <v>620</v>
+      </c>
+      <c r="B237" s="127" t="s">
+        <v>324</v>
+      </c>
+      <c r="C237" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D237" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E237" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="F237" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C237" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D237" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E237" s="10" t="s">
-        <v>781</v>
-      </c>
-      <c r="F237" s="10" t="s">
+      <c r="G237" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G237" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="50.85" customHeight="1">
       <c r="A238" s="44" t="s">
-        <v>627</v>
-      </c>
-      <c r="B238" s="126"/>
+        <v>621</v>
+      </c>
+      <c r="B238" s="128"/>
       <c r="C238" s="26" t="b">
         <v>1</v>
       </c>
@@ -11752,20 +11849,20 @@
         <v>1</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="F238" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G238" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G238" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="50.85" customHeight="1">
       <c r="A239" s="44" t="s">
-        <v>628</v>
-      </c>
-      <c r="B239" s="126"/>
+        <v>622</v>
+      </c>
+      <c r="B239" s="128"/>
       <c r="C239" s="26" t="b">
         <v>1</v>
       </c>
@@ -11773,20 +11870,20 @@
         <v>1</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F239" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G239" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G239" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="50.85" customHeight="1">
       <c r="A240" s="44" t="s">
-        <v>629</v>
-      </c>
-      <c r="B240" s="126"/>
+        <v>623</v>
+      </c>
+      <c r="B240" s="128"/>
       <c r="C240" s="26" t="b">
         <v>1</v>
       </c>
@@ -11794,20 +11891,20 @@
         <v>1</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="F240" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G240" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G240" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="50.85" customHeight="1">
       <c r="A241" s="44" t="s">
-        <v>630</v>
-      </c>
-      <c r="B241" s="126"/>
+        <v>624</v>
+      </c>
+      <c r="B241" s="128"/>
       <c r="C241" s="26" t="b">
         <v>1</v>
       </c>
@@ -11815,20 +11912,20 @@
         <v>1</v>
       </c>
       <c r="E241" s="10" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="F241" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G241" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G241" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="50.85" customHeight="1">
       <c r="A242" s="44" t="s">
-        <v>631</v>
-      </c>
-      <c r="B242" s="126"/>
+        <v>625</v>
+      </c>
+      <c r="B242" s="128"/>
       <c r="C242" s="26" t="b">
         <v>1</v>
       </c>
@@ -11836,20 +11933,20 @@
         <v>1</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F242" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G242" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G242" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="50.85" customHeight="1">
       <c r="A243" s="44" t="s">
-        <v>632</v>
-      </c>
-      <c r="B243" s="126"/>
+        <v>626</v>
+      </c>
+      <c r="B243" s="128"/>
       <c r="C243" s="26" t="b">
         <v>1</v>
       </c>
@@ -11857,20 +11954,20 @@
         <v>1</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="F243" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G243" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G243" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="50.85" customHeight="1">
       <c r="A244" s="44" t="s">
-        <v>633</v>
-      </c>
-      <c r="B244" s="126"/>
+        <v>627</v>
+      </c>
+      <c r="B244" s="128"/>
       <c r="C244" s="26" t="b">
         <v>1</v>
       </c>
@@ -11878,13 +11975,13 @@
         <v>1</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="F244" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G244" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G244" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="50.85" customHeight="1">
@@ -11897,10 +11994,10 @@
     </row>
     <row r="246" spans="1:7" ht="50.85" customHeight="1">
       <c r="A246" s="44" t="s">
-        <v>634</v>
-      </c>
-      <c r="B246" s="125" t="s">
-        <v>328</v>
+        <v>628</v>
+      </c>
+      <c r="B246" s="127" t="s">
+        <v>327</v>
       </c>
       <c r="C246" s="26" t="b">
         <v>1</v>
@@ -11909,20 +12006,20 @@
         <v>1</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="F246" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G246" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G246" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="50.85" customHeight="1">
       <c r="A247" s="44" t="s">
-        <v>635</v>
-      </c>
-      <c r="B247" s="126"/>
+        <v>629</v>
+      </c>
+      <c r="B247" s="128"/>
       <c r="C247" s="26" t="b">
         <v>1</v>
       </c>
@@ -11930,20 +12027,20 @@
         <v>1</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="F247" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G247" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G247" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="50.85" customHeight="1">
       <c r="A248" s="44" t="s">
-        <v>636</v>
-      </c>
-      <c r="B248" s="126"/>
+        <v>630</v>
+      </c>
+      <c r="B248" s="128"/>
       <c r="C248" s="99" t="b">
         <v>1</v>
       </c>
@@ -11951,20 +12048,20 @@
         <v>1</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="F248" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G248" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G248" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="50.85" customHeight="1">
       <c r="A249" s="44" t="s">
-        <v>637</v>
-      </c>
-      <c r="B249" s="126"/>
+        <v>631</v>
+      </c>
+      <c r="B249" s="128"/>
       <c r="C249" s="99" t="b">
         <v>1</v>
       </c>
@@ -11972,20 +12069,20 @@
         <v>1</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="F249" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G249" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G249" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="50.85" customHeight="1">
       <c r="A250" s="44" t="s">
-        <v>638</v>
-      </c>
-      <c r="B250" s="126"/>
+        <v>632</v>
+      </c>
+      <c r="B250" s="128"/>
       <c r="C250" s="99" t="b">
         <v>1</v>
       </c>
@@ -11993,20 +12090,20 @@
         <v>1</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="F250" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G250" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G250" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="50.85" customHeight="1">
       <c r="A251" s="44" t="s">
-        <v>639</v>
-      </c>
-      <c r="B251" s="126"/>
+        <v>633</v>
+      </c>
+      <c r="B251" s="128"/>
       <c r="C251" s="99" t="b">
         <v>1</v>
       </c>
@@ -12014,20 +12111,20 @@
         <v>1</v>
       </c>
       <c r="E251" s="10" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="F251" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G251" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G251" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="50.85" customHeight="1">
       <c r="A252" s="44" t="s">
-        <v>640</v>
-      </c>
-      <c r="B252" s="126"/>
+        <v>634</v>
+      </c>
+      <c r="B252" s="128"/>
       <c r="C252" s="99" t="b">
         <v>1</v>
       </c>
@@ -12035,20 +12132,20 @@
         <v>1</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F252" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G252" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G252" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="50.85" customHeight="1">
       <c r="A253" s="44" t="s">
-        <v>641</v>
-      </c>
-      <c r="B253" s="126"/>
+        <v>635</v>
+      </c>
+      <c r="B253" s="128"/>
       <c r="C253" s="99" t="b">
         <v>1</v>
       </c>
@@ -12056,13 +12153,13 @@
         <v>1</v>
       </c>
       <c r="E253" s="10" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="F253" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G253" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="G253" s="11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="50.85" customHeight="1">
@@ -12078,16 +12175,16 @@
         <v>5.7</v>
       </c>
       <c r="B255" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="C255" s="99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D255" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E255" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="C255" s="99" t="b">
-        <v>1</v>
-      </c>
-      <c r="D255" s="108" t="b">
-        <v>1</v>
-      </c>
-      <c r="E255" s="10" t="s">
-        <v>330</v>
       </c>
       <c r="F255" s="10" t="s">
         <v>164</v>
@@ -12106,30 +12203,30 @@
     </row>
     <row r="257" spans="1:7" ht="36.75" customHeight="1">
       <c r="A257" s="44" t="s">
-        <v>642</v>
-      </c>
-      <c r="B257" s="134" t="s">
+        <v>636</v>
+      </c>
+      <c r="B257" s="136" t="s">
+        <v>330</v>
+      </c>
+      <c r="C257" s="99" t="b">
+        <v>1</v>
+      </c>
+      <c r="D257" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E257" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="F257" s="10" t="s">
         <v>331</v>
-      </c>
-      <c r="C257" s="99" t="b">
-        <v>1</v>
-      </c>
-      <c r="D257" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E257" s="10" t="s">
-        <v>797</v>
-      </c>
-      <c r="F257" s="10" t="s">
-        <v>332</v>
       </c>
       <c r="G257" s="11"/>
     </row>
     <row r="258" spans="1:7" ht="36.75" customHeight="1">
       <c r="A258" s="44" t="s">
-        <v>643</v>
-      </c>
-      <c r="B258" s="135"/>
+        <v>637</v>
+      </c>
+      <c r="B258" s="137"/>
       <c r="C258" s="99" t="b">
         <v>1</v>
       </c>
@@ -12137,20 +12234,20 @@
         <v>1</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="F258" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G258" s="11" t="s">
         <v>333</v>
-      </c>
-      <c r="G258" s="11" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="36.75" customHeight="1">
       <c r="A259" s="44" t="s">
-        <v>644</v>
-      </c>
-      <c r="B259" s="135"/>
+        <v>638</v>
+      </c>
+      <c r="B259" s="137"/>
       <c r="C259" s="99" t="b">
         <v>1</v>
       </c>
@@ -12158,20 +12255,20 @@
         <v>1</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="F259" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="G259" s="11" t="s">
         <v>335</v>
-      </c>
-      <c r="G259" s="11" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="36.75" customHeight="1">
       <c r="A260" s="44" t="s">
-        <v>645</v>
-      </c>
-      <c r="B260" s="135"/>
+        <v>639</v>
+      </c>
+      <c r="B260" s="137"/>
       <c r="C260" s="99" t="b">
         <v>1</v>
       </c>
@@ -12179,20 +12276,20 @@
         <v>1</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="F260" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G260" s="11" t="s">
         <v>337</v>
-      </c>
-      <c r="G260" s="11" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="36.75" customHeight="1">
       <c r="A261" s="44" t="s">
-        <v>646</v>
-      </c>
-      <c r="B261" s="135"/>
+        <v>640</v>
+      </c>
+      <c r="B261" s="137"/>
       <c r="C261" s="99" t="b">
         <v>1</v>
       </c>
@@ -12200,20 +12297,20 @@
         <v>1</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="F261" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="G261" s="11" t="s">
         <v>339</v>
-      </c>
-      <c r="G261" s="11" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="36.75" customHeight="1">
       <c r="A262" s="44" t="s">
-        <v>647</v>
-      </c>
-      <c r="B262" s="135"/>
+        <v>641</v>
+      </c>
+      <c r="B262" s="137"/>
       <c r="C262" s="99" t="b">
         <v>1</v>
       </c>
@@ -12221,20 +12318,20 @@
         <v>1</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="F262" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="G262" s="11" t="s">
         <v>341</v>
-      </c>
-      <c r="G262" s="11" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="36.75" customHeight="1">
       <c r="A263" s="44" t="s">
-        <v>648</v>
-      </c>
-      <c r="B263" s="135"/>
+        <v>642</v>
+      </c>
+      <c r="B263" s="137"/>
       <c r="C263" s="99" t="b">
         <v>1</v>
       </c>
@@ -12242,20 +12339,20 @@
         <v>1</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="F263" s="10" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G263" s="10" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="36.75" customHeight="1">
       <c r="A264" s="44" t="s">
-        <v>649</v>
-      </c>
-      <c r="B264" s="135"/>
+        <v>643</v>
+      </c>
+      <c r="B264" s="137"/>
       <c r="C264" s="99" t="b">
         <v>1</v>
       </c>
@@ -12263,20 +12360,20 @@
         <v>1</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="F264" s="10" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="G264" s="38" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="36.75" customHeight="1">
       <c r="A265" s="44" t="s">
-        <v>650</v>
-      </c>
-      <c r="B265" s="135"/>
+        <v>644</v>
+      </c>
+      <c r="B265" s="137"/>
       <c r="C265" s="99" t="b">
         <v>1</v>
       </c>
@@ -12284,20 +12381,20 @@
         <v>1</v>
       </c>
       <c r="E265" s="59" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F265" s="59" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="G265" s="59" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="36.75" customHeight="1">
       <c r="A266" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="B266" s="135"/>
+        <v>645</v>
+      </c>
+      <c r="B266" s="137"/>
       <c r="C266" s="99" t="b">
         <v>1</v>
       </c>
@@ -12305,20 +12402,20 @@
         <v>1</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="G266" s="10" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="36.75" customHeight="1">
       <c r="A267" s="44" t="s">
-        <v>652</v>
-      </c>
-      <c r="B267" s="135"/>
+        <v>646</v>
+      </c>
+      <c r="B267" s="137"/>
       <c r="C267" s="99" t="b">
         <v>1</v>
       </c>
@@ -12326,20 +12423,20 @@
         <v>1</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="F267" s="10" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G267" s="10" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="36.75" customHeight="1">
       <c r="A268" s="44" t="s">
-        <v>653</v>
-      </c>
-      <c r="B268" s="135"/>
+        <v>647</v>
+      </c>
+      <c r="B268" s="137"/>
       <c r="C268" s="99" t="b">
         <v>1</v>
       </c>
@@ -12347,20 +12444,20 @@
         <v>1</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F268" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="G268" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="G268" s="11" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="36.75" customHeight="1">
       <c r="A269" s="44" t="s">
-        <v>654</v>
-      </c>
-      <c r="B269" s="135"/>
+        <v>648</v>
+      </c>
+      <c r="B269" s="137"/>
       <c r="C269" s="99" t="b">
         <v>1</v>
       </c>
@@ -12368,20 +12465,20 @@
         <v>1</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="F269" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="G269" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="G269" s="11" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="36.75" customHeight="1">
       <c r="A270" s="44" t="s">
-        <v>655</v>
-      </c>
-      <c r="B270" s="135"/>
+        <v>649</v>
+      </c>
+      <c r="B270" s="137"/>
       <c r="C270" s="99" t="b">
         <v>1</v>
       </c>
@@ -12389,20 +12486,20 @@
         <v>1</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F270" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="G270" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="G270" s="11" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="36.75" customHeight="1">
       <c r="A271" s="44" t="s">
-        <v>656</v>
-      </c>
-      <c r="B271" s="135"/>
+        <v>650</v>
+      </c>
+      <c r="B271" s="137"/>
       <c r="C271" s="99" t="b">
         <v>1</v>
       </c>
@@ -12410,20 +12507,20 @@
         <v>1</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="F271" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="G271" s="11" t="s">
         <v>349</v>
-      </c>
-      <c r="G271" s="11" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="36.75" customHeight="1">
       <c r="A272" s="44" t="s">
-        <v>657</v>
-      </c>
-      <c r="B272" s="135"/>
+        <v>651</v>
+      </c>
+      <c r="B272" s="137"/>
       <c r="C272" s="99" t="b">
         <v>1</v>
       </c>
@@ -12431,20 +12528,20 @@
         <v>1</v>
       </c>
       <c r="E272" s="10" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="F272" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="G272" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="G272" s="11" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="36.75" customHeight="1">
       <c r="A273" s="44" t="s">
-        <v>658</v>
-      </c>
-      <c r="B273" s="135"/>
+        <v>652</v>
+      </c>
+      <c r="B273" s="137"/>
       <c r="C273" s="99" t="b">
         <v>1</v>
       </c>
@@ -12452,20 +12549,20 @@
         <v>1</v>
       </c>
       <c r="E273" s="10" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="F273" s="10" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="G273" s="10" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="36.75" customHeight="1">
       <c r="A274" s="44" t="s">
-        <v>823</v>
-      </c>
-      <c r="B274" s="135"/>
+        <v>814</v>
+      </c>
+      <c r="B274" s="137"/>
       <c r="C274" s="99" t="b">
         <v>1</v>
       </c>
@@ -12473,20 +12570,20 @@
         <v>1</v>
       </c>
       <c r="E274" s="10" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F274" s="10" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G274" s="10" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="36.75" customHeight="1">
       <c r="A275" s="44" t="s">
-        <v>659</v>
-      </c>
-      <c r="B275" s="135"/>
+        <v>653</v>
+      </c>
+      <c r="B275" s="137"/>
       <c r="C275" s="99" t="b">
         <v>1</v>
       </c>
@@ -12494,20 +12591,20 @@
         <v>1</v>
       </c>
       <c r="E275" s="59" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="F275" s="59" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="G275" s="59" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="36.75" customHeight="1">
       <c r="A276" s="44" t="s">
-        <v>824</v>
-      </c>
-      <c r="B276" s="135"/>
+        <v>815</v>
+      </c>
+      <c r="B276" s="137"/>
       <c r="C276" s="99" t="b">
         <v>1</v>
       </c>
@@ -12515,20 +12612,20 @@
         <v>1</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="F276" s="10" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G276" s="10" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="36.75" customHeight="1">
       <c r="A277" s="44" t="s">
-        <v>825</v>
-      </c>
-      <c r="B277" s="136"/>
+        <v>816</v>
+      </c>
+      <c r="B277" s="138"/>
       <c r="C277" s="99" t="b">
         <v>1</v>
       </c>
@@ -12536,13 +12633,13 @@
         <v>1</v>
       </c>
       <c r="E277" s="10" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F277" s="10" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="G277" s="10" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="36.75" customHeight="1">
@@ -12555,10 +12652,10 @@
     </row>
     <row r="279" spans="1:7" ht="64.7" customHeight="1">
       <c r="A279" s="44" t="s">
-        <v>660</v>
-      </c>
-      <c r="B279" s="134" t="s">
-        <v>353</v>
+        <v>654</v>
+      </c>
+      <c r="B279" s="136" t="s">
+        <v>352</v>
       </c>
       <c r="C279" s="99" t="b">
         <v>0</v>
@@ -12567,20 +12664,20 @@
         <v>0</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="F279" s="10" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="G279" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="64.7" customHeight="1">
       <c r="A280" s="44" t="s">
-        <v>661</v>
-      </c>
-      <c r="B280" s="135"/>
+        <v>655</v>
+      </c>
+      <c r="B280" s="137"/>
       <c r="C280" s="99" t="b">
         <v>0</v>
       </c>
@@ -12588,20 +12685,20 @@
         <v>0</v>
       </c>
       <c r="E280" s="10" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="F280" s="10" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="G280" s="60" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="64.7" customHeight="1">
       <c r="A281" s="44" t="s">
-        <v>662</v>
-      </c>
-      <c r="B281" s="135"/>
+        <v>656</v>
+      </c>
+      <c r="B281" s="137"/>
       <c r="C281" s="99" t="b">
         <v>0</v>
       </c>
@@ -12609,20 +12706,20 @@
         <v>0</v>
       </c>
       <c r="E281" s="10" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="F281" s="60" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="G281" s="60" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="64.7" customHeight="1">
       <c r="A282" s="44" t="s">
-        <v>663</v>
-      </c>
-      <c r="B282" s="135"/>
+        <v>657</v>
+      </c>
+      <c r="B282" s="137"/>
       <c r="C282" s="99" t="b">
         <v>0</v>
       </c>
@@ -12630,20 +12727,20 @@
         <v>0</v>
       </c>
       <c r="E282" s="10" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="F282" s="60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G282" s="60" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="64.7" customHeight="1">
       <c r="A283" s="44" t="s">
-        <v>664</v>
-      </c>
-      <c r="B283" s="135"/>
+        <v>658</v>
+      </c>
+      <c r="B283" s="137"/>
       <c r="C283" s="99" t="b">
         <v>0</v>
       </c>
@@ -12651,20 +12748,20 @@
         <v>0</v>
       </c>
       <c r="E283" s="10" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="F283" s="69" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="G283" s="60" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="64.7" customHeight="1">
       <c r="A284" s="44" t="s">
-        <v>665</v>
-      </c>
-      <c r="B284" s="135"/>
+        <v>659</v>
+      </c>
+      <c r="B284" s="137"/>
       <c r="C284" s="99" t="b">
         <v>0</v>
       </c>
@@ -12672,20 +12769,20 @@
         <v>0</v>
       </c>
       <c r="E284" s="60" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="F284" s="60" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="G284" s="60" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="64.7" customHeight="1">
       <c r="A285" s="44" t="s">
-        <v>666</v>
-      </c>
-      <c r="B285" s="135"/>
+        <v>660</v>
+      </c>
+      <c r="B285" s="137"/>
       <c r="C285" s="99" t="b">
         <v>0</v>
       </c>
@@ -12693,20 +12790,20 @@
         <v>0</v>
       </c>
       <c r="E285" s="60" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="F285" s="60" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G285" s="60" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="64.7" customHeight="1">
       <c r="A286" s="44" t="s">
-        <v>667</v>
-      </c>
-      <c r="B286" s="135"/>
+        <v>661</v>
+      </c>
+      <c r="B286" s="137"/>
       <c r="C286" s="99" t="b">
         <v>0</v>
       </c>
@@ -12714,20 +12811,20 @@
         <v>0</v>
       </c>
       <c r="E286" s="60" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="F286" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G286" s="11" t="s">
         <v>357</v>
-      </c>
-      <c r="G286" s="11" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="64.7" customHeight="1">
       <c r="A287" s="44" t="s">
-        <v>668</v>
-      </c>
-      <c r="B287" s="135"/>
+        <v>662</v>
+      </c>
+      <c r="B287" s="137"/>
       <c r="C287" s="99" t="b">
         <v>0</v>
       </c>
@@ -12735,20 +12832,20 @@
         <v>0</v>
       </c>
       <c r="E287" s="60" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="F287" s="10" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="G287" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="64.7" customHeight="1">
       <c r="A288" s="44" t="s">
-        <v>669</v>
-      </c>
-      <c r="B288" s="135"/>
+        <v>663</v>
+      </c>
+      <c r="B288" s="137"/>
       <c r="C288" s="99" t="b">
         <v>0</v>
       </c>
@@ -12756,20 +12853,20 @@
         <v>0</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="F288" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="G288" s="11" t="s">
         <v>360</v>
-      </c>
-      <c r="G288" s="11" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="64.7" customHeight="1">
       <c r="A289" s="44" t="s">
-        <v>670</v>
-      </c>
-      <c r="B289" s="135"/>
+        <v>664</v>
+      </c>
+      <c r="B289" s="137"/>
       <c r="C289" s="99" t="b">
         <v>0</v>
       </c>
@@ -12777,20 +12874,20 @@
         <v>0</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="F289" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="G289" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="G289" s="11" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="64.7" customHeight="1">
       <c r="A290" s="44" t="s">
-        <v>844</v>
-      </c>
-      <c r="B290" s="135"/>
+        <v>835</v>
+      </c>
+      <c r="B290" s="137"/>
       <c r="C290" s="99" t="b">
         <v>0</v>
       </c>
@@ -12798,20 +12895,20 @@
         <v>0</v>
       </c>
       <c r="E290" s="7" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="G290" s="9" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="64.7" customHeight="1">
       <c r="A291" s="44" t="s">
-        <v>845</v>
-      </c>
-      <c r="B291" s="136"/>
+        <v>836</v>
+      </c>
+      <c r="B291" s="138"/>
       <c r="C291" s="99" t="b">
         <v>0</v>
       </c>
@@ -12819,13 +12916,13 @@
         <v>0</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="F291" s="61" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="G291" s="33" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
     </row>
     <row r="292" spans="1:7" s="42" customFormat="1" ht="15">
@@ -12842,7 +12939,7 @@
         <v>6</v>
       </c>
       <c r="B293" s="77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C293" s="99" t="b">
         <v>1</v>
@@ -12851,13 +12948,13 @@
         <v>1</v>
       </c>
       <c r="E293" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F293" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G293" s="11" t="s">
         <v>364</v>
-      </c>
-      <c r="F293" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="G293" s="11" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="15">
@@ -12870,26 +12967,26 @@
     </row>
     <row r="295" spans="1:7" ht="15.75">
       <c r="B295" s="79" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="C295" s="106" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="D295" s="107"/>
       <c r="E295" s="69" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="F295" s="69"/>
       <c r="G295" s="62"/>
     </row>
     <row r="296" spans="1:7" ht="30">
       <c r="B296" s="77" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C296" s="99"/>
       <c r="D296" s="99"/>
       <c r="E296" s="63" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F296" s="69"/>
       <c r="G296" s="62"/>
@@ -12898,7 +12995,7 @@
       <c r="C297" s="99"/>
       <c r="D297" s="99"/>
       <c r="E297" s="63" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="F297" s="69"/>
       <c r="G297" s="62"/>
@@ -12907,7 +13004,7 @@
       <c r="C298" s="99"/>
       <c r="D298" s="99"/>
       <c r="E298" s="63" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="F298" s="69"/>
       <c r="G298" s="62"/>
@@ -12921,93 +13018,93 @@
       <c r="G299" s="62"/>
     </row>
     <row r="300" spans="1:7" ht="15">
-      <c r="B300" s="127" t="s">
-        <v>864</v>
+      <c r="B300" s="129" t="s">
+        <v>855</v>
       </c>
       <c r="C300" s="99"/>
       <c r="D300" s="99"/>
       <c r="E300" s="69" t="s">
-        <v>393</v>
-      </c>
-      <c r="F300" s="122" t="s">
+        <v>392</v>
+      </c>
+      <c r="F300" s="124" t="s">
+        <v>410</v>
+      </c>
+      <c r="G300" s="145" t="s">
         <v>411</v>
       </c>
-      <c r="G300" s="143" t="s">
-        <v>412</v>
-      </c>
     </row>
     <row r="301" spans="1:7" ht="15">
-      <c r="B301" s="128"/>
+      <c r="B301" s="130"/>
       <c r="C301" s="99"/>
       <c r="D301" s="99"/>
       <c r="E301" s="69" t="s">
-        <v>394</v>
-      </c>
-      <c r="F301" s="123"/>
-      <c r="G301" s="144"/>
+        <v>393</v>
+      </c>
+      <c r="F301" s="125"/>
+      <c r="G301" s="146"/>
     </row>
     <row r="302" spans="1:7" ht="30">
-      <c r="B302" s="128"/>
+      <c r="B302" s="130"/>
       <c r="C302" s="99"/>
       <c r="D302" s="99"/>
       <c r="E302" s="69" t="s">
-        <v>865</v>
-      </c>
-      <c r="F302" s="123"/>
-      <c r="G302" s="144"/>
+        <v>856</v>
+      </c>
+      <c r="F302" s="125"/>
+      <c r="G302" s="146"/>
     </row>
     <row r="303" spans="1:7" ht="15">
-      <c r="B303" s="128"/>
+      <c r="B303" s="130"/>
       <c r="C303" s="99"/>
       <c r="D303" s="99"/>
       <c r="E303" s="69" t="s">
-        <v>395</v>
-      </c>
-      <c r="F303" s="123"/>
-      <c r="G303" s="144"/>
+        <v>394</v>
+      </c>
+      <c r="F303" s="125"/>
+      <c r="G303" s="146"/>
     </row>
     <row r="304" spans="1:7" ht="15">
-      <c r="B304" s="128"/>
+      <c r="B304" s="130"/>
       <c r="C304" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D304" s="108" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E304" s="69" t="s">
-        <v>866</v>
-      </c>
-      <c r="F304" s="123"/>
-      <c r="G304" s="144"/>
+        <v>857</v>
+      </c>
+      <c r="F304" s="125"/>
+      <c r="G304" s="146"/>
     </row>
     <row r="305" spans="1:7" ht="15">
-      <c r="B305" s="128"/>
+      <c r="B305" s="130"/>
       <c r="C305" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D305" s="108" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E305" s="69" t="s">
-        <v>867</v>
-      </c>
-      <c r="F305" s="123"/>
-      <c r="G305" s="144"/>
+        <v>858</v>
+      </c>
+      <c r="F305" s="125"/>
+      <c r="G305" s="146"/>
     </row>
     <row r="306" spans="1:7" ht="32.1" customHeight="1">
       <c r="A306" s="117"/>
-      <c r="B306" s="128"/>
+      <c r="B306" s="130"/>
       <c r="C306" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D306" s="108" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E306" s="69" t="s">
-        <v>868</v>
-      </c>
-      <c r="F306" s="124"/>
-      <c r="G306" s="145"/>
+        <v>859</v>
+      </c>
+      <c r="F306" s="126"/>
+      <c r="G306" s="147"/>
     </row>
     <row r="307" spans="1:7" ht="15">
       <c r="A307" s="117"/>
@@ -13020,165 +13117,165 @@
     </row>
     <row r="308" spans="1:7" ht="15">
       <c r="A308" s="117"/>
-      <c r="B308" s="127" t="s">
-        <v>869</v>
+      <c r="B308" s="129" t="s">
+        <v>860</v>
       </c>
       <c r="C308" s="99"/>
       <c r="D308" s="26"/>
       <c r="E308" s="69" t="s">
-        <v>870</v>
-      </c>
-      <c r="F308" s="122" t="s">
+        <v>861</v>
+      </c>
+      <c r="F308" s="124" t="s">
+        <v>415</v>
+      </c>
+      <c r="G308" s="145" t="s">
         <v>416</v>
-      </c>
-      <c r="G308" s="143" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="15">
       <c r="A309" s="117"/>
-      <c r="B309" s="128"/>
+      <c r="B309" s="130"/>
       <c r="C309" s="99"/>
       <c r="D309" s="26"/>
       <c r="E309" s="69" t="s">
-        <v>871</v>
-      </c>
-      <c r="F309" s="123"/>
-      <c r="G309" s="144"/>
+        <v>862</v>
+      </c>
+      <c r="F309" s="125"/>
+      <c r="G309" s="146"/>
     </row>
     <row r="310" spans="1:7" ht="15">
       <c r="A310" s="117"/>
-      <c r="B310" s="128"/>
+      <c r="B310" s="130"/>
       <c r="C310" s="99"/>
       <c r="D310" s="26"/>
       <c r="E310" s="69" t="s">
-        <v>872</v>
-      </c>
-      <c r="F310" s="123"/>
-      <c r="G310" s="144"/>
+        <v>863</v>
+      </c>
+      <c r="F310" s="125"/>
+      <c r="G310" s="146"/>
     </row>
     <row r="311" spans="1:7" ht="30">
       <c r="A311" s="117"/>
-      <c r="B311" s="128"/>
+      <c r="B311" s="130"/>
       <c r="C311" s="99"/>
       <c r="D311" s="26"/>
       <c r="E311" s="69" t="s">
-        <v>397</v>
-      </c>
-      <c r="F311" s="123"/>
-      <c r="G311" s="144"/>
+        <v>396</v>
+      </c>
+      <c r="F311" s="125"/>
+      <c r="G311" s="146"/>
     </row>
     <row r="312" spans="1:7" ht="45">
       <c r="A312" s="117"/>
-      <c r="B312" s="128"/>
+      <c r="B312" s="130"/>
       <c r="C312" s="99"/>
       <c r="D312" s="26"/>
       <c r="E312" s="69" t="s">
-        <v>873</v>
-      </c>
-      <c r="F312" s="123"/>
-      <c r="G312" s="144"/>
+        <v>864</v>
+      </c>
+      <c r="F312" s="125"/>
+      <c r="G312" s="146"/>
     </row>
     <row r="313" spans="1:7" ht="32.1" customHeight="1">
       <c r="A313" s="117"/>
-      <c r="B313" s="128"/>
+      <c r="B313" s="130"/>
       <c r="C313" s="99"/>
       <c r="D313" s="26"/>
       <c r="E313" s="69" t="s">
-        <v>874</v>
-      </c>
-      <c r="F313" s="123"/>
-      <c r="G313" s="144"/>
+        <v>865</v>
+      </c>
+      <c r="F313" s="125"/>
+      <c r="G313" s="146"/>
     </row>
     <row r="314" spans="1:7" ht="30">
       <c r="A314" s="117"/>
-      <c r="B314" s="128"/>
+      <c r="B314" s="130"/>
       <c r="C314" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D314" s="108" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E314" s="69" t="s">
-        <v>875</v>
-      </c>
-      <c r="F314" s="123"/>
-      <c r="G314" s="144"/>
+        <v>866</v>
+      </c>
+      <c r="F314" s="125"/>
+      <c r="G314" s="146"/>
     </row>
     <row r="315" spans="1:7" ht="15">
       <c r="A315" s="117"/>
-      <c r="B315" s="128"/>
+      <c r="B315" s="130"/>
       <c r="C315" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D315" s="108" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E315" s="69" t="s">
-        <v>876</v>
-      </c>
-      <c r="F315" s="123"/>
-      <c r="G315" s="144"/>
+        <v>867</v>
+      </c>
+      <c r="F315" s="125"/>
+      <c r="G315" s="146"/>
     </row>
     <row r="316" spans="1:7" ht="15">
       <c r="A316" s="117"/>
-      <c r="B316" s="128"/>
+      <c r="B316" s="130"/>
       <c r="C316" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D316" s="108" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E316" s="69" t="s">
-        <v>877</v>
-      </c>
-      <c r="F316" s="123"/>
-      <c r="G316" s="144"/>
+        <v>868</v>
+      </c>
+      <c r="F316" s="125"/>
+      <c r="G316" s="146"/>
     </row>
     <row r="317" spans="1:7" ht="15">
       <c r="A317" s="117"/>
-      <c r="B317" s="128"/>
+      <c r="B317" s="130"/>
       <c r="C317" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D317" s="108" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E317" s="69" t="s">
-        <v>878</v>
-      </c>
-      <c r="F317" s="123"/>
-      <c r="G317" s="144"/>
+        <v>869</v>
+      </c>
+      <c r="F317" s="125"/>
+      <c r="G317" s="146"/>
     </row>
     <row r="318" spans="1:7" ht="15">
       <c r="A318" s="117"/>
-      <c r="B318" s="128"/>
+      <c r="B318" s="130"/>
       <c r="C318" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D318" s="108" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E318" s="69" t="s">
-        <v>879</v>
-      </c>
-      <c r="F318" s="123"/>
-      <c r="G318" s="144"/>
+        <v>870</v>
+      </c>
+      <c r="F318" s="125"/>
+      <c r="G318" s="146"/>
     </row>
     <row r="319" spans="1:7" ht="15">
       <c r="A319" s="117"/>
-      <c r="B319" s="128"/>
+      <c r="B319" s="130"/>
       <c r="C319" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D319" s="108" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E319" s="69" t="s">
-        <v>880</v>
-      </c>
-      <c r="F319" s="124"/>
-      <c r="G319" s="145"/>
+        <v>871</v>
+      </c>
+      <c r="F319" s="126"/>
+      <c r="G319" s="147"/>
     </row>
     <row r="320" spans="1:7" ht="15">
       <c r="A320" s="117"/>
@@ -13191,57 +13288,57 @@
     </row>
     <row r="321" spans="1:7" ht="30">
       <c r="A321" s="117"/>
-      <c r="B321" s="129" t="s">
-        <v>413</v>
+      <c r="B321" s="131" t="s">
+        <v>412</v>
       </c>
       <c r="C321" s="99"/>
       <c r="D321" s="26"/>
       <c r="E321" s="63" t="s">
-        <v>881</v>
-      </c>
-      <c r="F321" s="122" t="s">
+        <v>872</v>
+      </c>
+      <c r="F321" s="124" t="s">
+        <v>417</v>
+      </c>
+      <c r="G321" s="124" t="s">
         <v>418</v>
-      </c>
-      <c r="G321" s="122" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="15">
       <c r="A322" s="117"/>
-      <c r="B322" s="130"/>
+      <c r="B322" s="132"/>
       <c r="C322" s="99"/>
       <c r="D322" s="26"/>
       <c r="E322" s="63" t="s">
-        <v>398</v>
-      </c>
-      <c r="F322" s="123"/>
-      <c r="G322" s="123"/>
+        <v>397</v>
+      </c>
+      <c r="F322" s="125"/>
+      <c r="G322" s="125"/>
     </row>
     <row r="323" spans="1:7" ht="15">
       <c r="A323" s="117"/>
-      <c r="B323" s="130"/>
+      <c r="B323" s="132"/>
       <c r="C323" s="99"/>
       <c r="D323" s="26"/>
       <c r="E323" s="63" t="s">
-        <v>399</v>
-      </c>
-      <c r="F323" s="123"/>
-      <c r="G323" s="123"/>
+        <v>398</v>
+      </c>
+      <c r="F323" s="125"/>
+      <c r="G323" s="125"/>
     </row>
     <row r="324" spans="1:7" ht="30">
       <c r="A324" s="117"/>
-      <c r="B324" s="130"/>
+      <c r="B324" s="132"/>
       <c r="C324" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D324" s="26" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E324" s="63" t="s">
-        <v>882</v>
-      </c>
-      <c r="F324" s="124"/>
-      <c r="G324" s="124"/>
+        <v>873</v>
+      </c>
+      <c r="F324" s="126"/>
+      <c r="G324" s="126"/>
     </row>
     <row r="325" spans="1:7" ht="15">
       <c r="A325" s="117"/>
@@ -13254,192 +13351,192 @@
     </row>
     <row r="326" spans="1:7" ht="30">
       <c r="A326" s="117"/>
-      <c r="B326" s="129" t="s">
-        <v>414</v>
+      <c r="B326" s="131" t="s">
+        <v>413</v>
       </c>
       <c r="C326" s="99"/>
       <c r="D326" s="26"/>
       <c r="E326" s="63" t="s">
-        <v>400</v>
-      </c>
-      <c r="F326" s="122" t="s">
-        <v>883</v>
-      </c>
-      <c r="G326" s="122" t="s">
-        <v>420</v>
+        <v>399</v>
+      </c>
+      <c r="F326" s="124" t="s">
+        <v>874</v>
+      </c>
+      <c r="G326" s="124" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="30">
       <c r="A327" s="117"/>
-      <c r="B327" s="130"/>
+      <c r="B327" s="132"/>
       <c r="C327" s="99"/>
       <c r="D327" s="26"/>
       <c r="E327" s="63" t="s">
-        <v>402</v>
-      </c>
-      <c r="F327" s="123"/>
-      <c r="G327" s="123"/>
+        <v>401</v>
+      </c>
+      <c r="F327" s="125"/>
+      <c r="G327" s="125"/>
     </row>
     <row r="328" spans="1:7" ht="30">
       <c r="A328" s="117"/>
-      <c r="B328" s="130"/>
+      <c r="B328" s="132"/>
       <c r="C328" s="99"/>
       <c r="D328" s="26"/>
       <c r="E328" s="63" t="s">
-        <v>401</v>
-      </c>
-      <c r="F328" s="123"/>
-      <c r="G328" s="123"/>
+        <v>400</v>
+      </c>
+      <c r="F328" s="125"/>
+      <c r="G328" s="125"/>
     </row>
     <row r="329" spans="1:7" ht="15">
       <c r="A329" s="117"/>
-      <c r="B329" s="130"/>
+      <c r="B329" s="132"/>
       <c r="C329" s="99"/>
       <c r="D329" s="26"/>
       <c r="E329" s="63" t="s">
-        <v>403</v>
-      </c>
-      <c r="F329" s="123"/>
-      <c r="G329" s="123"/>
+        <v>402</v>
+      </c>
+      <c r="F329" s="125"/>
+      <c r="G329" s="125"/>
     </row>
     <row r="330" spans="1:7" ht="15">
       <c r="A330" s="117"/>
-      <c r="B330" s="130"/>
+      <c r="B330" s="132"/>
       <c r="C330" s="99"/>
       <c r="D330" s="26"/>
       <c r="E330" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="F330" s="123"/>
-      <c r="G330" s="123"/>
+        <v>403</v>
+      </c>
+      <c r="F330" s="125"/>
+      <c r="G330" s="125"/>
     </row>
     <row r="331" spans="1:7" ht="15">
       <c r="A331" s="117"/>
-      <c r="B331" s="130"/>
+      <c r="B331" s="132"/>
       <c r="C331" s="99"/>
       <c r="D331" s="26"/>
       <c r="E331" s="63" t="s">
-        <v>884</v>
-      </c>
-      <c r="F331" s="123"/>
-      <c r="G331" s="123"/>
+        <v>875</v>
+      </c>
+      <c r="F331" s="125"/>
+      <c r="G331" s="125"/>
     </row>
     <row r="332" spans="1:7" ht="30">
       <c r="A332" s="117"/>
-      <c r="B332" s="130"/>
+      <c r="B332" s="132"/>
       <c r="C332" s="99"/>
       <c r="D332" s="26"/>
       <c r="E332" s="63" t="s">
-        <v>405</v>
-      </c>
-      <c r="F332" s="123"/>
-      <c r="G332" s="123"/>
+        <v>404</v>
+      </c>
+      <c r="F332" s="125"/>
+      <c r="G332" s="125"/>
     </row>
     <row r="333" spans="1:7" ht="30">
       <c r="A333" s="117"/>
-      <c r="B333" s="130"/>
+      <c r="B333" s="132"/>
       <c r="C333" s="99"/>
       <c r="D333" s="26"/>
       <c r="E333" s="63" t="s">
-        <v>885</v>
-      </c>
-      <c r="F333" s="123"/>
-      <c r="G333" s="123"/>
+        <v>876</v>
+      </c>
+      <c r="F333" s="125"/>
+      <c r="G333" s="125"/>
     </row>
     <row r="334" spans="1:7" ht="30">
       <c r="A334" s="117"/>
-      <c r="B334" s="130"/>
+      <c r="B334" s="132"/>
       <c r="C334" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D334" s="26" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E334" s="63" t="s">
-        <v>886</v>
-      </c>
-      <c r="F334" s="123"/>
-      <c r="G334" s="123"/>
+        <v>877</v>
+      </c>
+      <c r="F334" s="125"/>
+      <c r="G334" s="125"/>
     </row>
     <row r="335" spans="1:7" ht="30">
       <c r="A335" s="117"/>
-      <c r="B335" s="130"/>
+      <c r="B335" s="132"/>
       <c r="C335" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D335" s="26" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E335" s="63" t="s">
-        <v>887</v>
-      </c>
-      <c r="F335" s="123"/>
-      <c r="G335" s="123"/>
+        <v>878</v>
+      </c>
+      <c r="F335" s="125"/>
+      <c r="G335" s="125"/>
     </row>
     <row r="336" spans="1:7" ht="30">
       <c r="A336" s="117"/>
-      <c r="B336" s="130"/>
+      <c r="B336" s="132"/>
       <c r="C336" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D336" s="26" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E336" s="63" t="s">
-        <v>888</v>
-      </c>
-      <c r="F336" s="123"/>
-      <c r="G336" s="123"/>
+        <v>879</v>
+      </c>
+      <c r="F336" s="125"/>
+      <c r="G336" s="125"/>
     </row>
     <row r="337" spans="1:7" ht="30">
       <c r="A337" s="117"/>
-      <c r="B337" s="130"/>
+      <c r="B337" s="132"/>
       <c r="C337" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D337" s="26" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E337" s="63" t="s">
-        <v>889</v>
-      </c>
-      <c r="F337" s="123"/>
-      <c r="G337" s="123"/>
+        <v>880</v>
+      </c>
+      <c r="F337" s="125"/>
+      <c r="G337" s="125"/>
     </row>
     <row r="338" spans="1:7" ht="30">
       <c r="A338" s="117"/>
-      <c r="B338" s="130"/>
+      <c r="B338" s="132"/>
       <c r="C338" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D338" s="26" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E338" s="63" t="s">
-        <v>890</v>
-      </c>
-      <c r="F338" s="123"/>
-      <c r="G338" s="123"/>
+        <v>881</v>
+      </c>
+      <c r="F338" s="125"/>
+      <c r="G338" s="125"/>
     </row>
     <row r="339" spans="1:7" ht="30">
       <c r="A339" s="117"/>
-      <c r="B339" s="130"/>
+      <c r="B339" s="132"/>
       <c r="C339" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D339" s="26" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E339" s="63" t="s">
-        <v>891</v>
-      </c>
-      <c r="F339" s="123"/>
-      <c r="G339" s="123"/>
+        <v>882</v>
+      </c>
+      <c r="F339" s="125"/>
+      <c r="G339" s="125"/>
     </row>
     <row r="340" spans="1:7" ht="15">
       <c r="A340" s="117"/>
       <c r="B340" s="77" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C340" s="77"/>
       <c r="D340" s="77"/>
@@ -13449,76 +13546,76 @@
     </row>
     <row r="341" spans="1:7" ht="15">
       <c r="A341" s="117"/>
-      <c r="B341" s="129" t="s">
-        <v>415</v>
+      <c r="B341" s="131" t="s">
+        <v>414</v>
       </c>
       <c r="C341" s="99"/>
       <c r="D341" s="26"/>
       <c r="E341" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F341" s="65" t="s">
+        <v>420</v>
+      </c>
+      <c r="G341" s="70" t="s">
         <v>421</v>
-      </c>
-      <c r="G341" s="70" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="15">
       <c r="A342" s="117"/>
-      <c r="B342" s="130"/>
+      <c r="B342" s="132"/>
       <c r="C342" s="99"/>
       <c r="D342" s="26"/>
       <c r="E342" s="63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F342" s="66"/>
       <c r="G342" s="71"/>
     </row>
     <row r="343" spans="1:7" ht="15">
       <c r="A343" s="117"/>
-      <c r="B343" s="130"/>
+      <c r="B343" s="132"/>
       <c r="C343" s="99"/>
       <c r="D343" s="26"/>
       <c r="E343" s="63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F343" s="66"/>
       <c r="G343" s="71"/>
     </row>
     <row r="344" spans="1:7" ht="15">
       <c r="A344" s="117"/>
-      <c r="B344" s="130"/>
+      <c r="B344" s="132"/>
       <c r="C344" s="99"/>
       <c r="D344" s="26"/>
       <c r="E344" s="63" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F344" s="66"/>
       <c r="G344" s="71"/>
     </row>
     <row r="345" spans="1:7" ht="30">
       <c r="A345" s="117"/>
-      <c r="B345" s="130"/>
+      <c r="B345" s="132"/>
       <c r="C345" s="99"/>
       <c r="D345" s="26"/>
       <c r="E345" s="63" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="F345" s="66"/>
       <c r="G345" s="71"/>
     </row>
     <row r="346" spans="1:7" ht="15">
       <c r="A346" s="117"/>
-      <c r="B346" s="130"/>
+      <c r="B346" s="132"/>
       <c r="C346" s="99" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D346" s="26" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E346" s="63" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F346" s="67"/>
       <c r="G346" s="72"/>
@@ -13772,14 +13869,14 @@
     <mergeCell ref="E131:E132"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D161:D168 D127:D128 D115:D125 D2:D98 D109:D113 D152:D157 D139:D143 D145:D148 D130:D135">
-    <cfRule type="containsText" dxfId="114" priority="200" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="201" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D2)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="202">
+  <conditionalFormatting sqref="D170:D171 D173">
+    <cfRule type="containsText" dxfId="124" priority="210" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D170)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="211" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D170)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13787,7 +13884,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="203">
+    <cfRule type="colorScale" priority="213">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13798,14 +13895,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D169:D171 D173">
-    <cfRule type="containsText" dxfId="112" priority="196" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D169)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="197" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D169)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="198">
+  <conditionalFormatting sqref="D174:D176">
+    <cfRule type="containsText" dxfId="122" priority="206" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D174)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="207" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D174)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="208">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13813,7 +13910,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="199">
+    <cfRule type="colorScale" priority="209">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13824,14 +13921,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D174:D176">
-    <cfRule type="containsText" dxfId="110" priority="192" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D174)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="193" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D174)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="194">
+  <conditionalFormatting sqref="D177:D182 D184">
+    <cfRule type="containsText" dxfId="120" priority="202" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="203" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D177)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="204">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13839,7 +13936,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="195">
+    <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13850,14 +13947,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D177:D182 D184">
-    <cfRule type="containsText" dxfId="108" priority="188" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="189" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D177)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="190">
+  <conditionalFormatting sqref="D192:D200 D185:D189">
+    <cfRule type="containsText" dxfId="118" priority="198" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D185)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="199" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D185)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13865,7 +13962,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="191">
+    <cfRule type="colorScale" priority="201">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13876,14 +13973,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D192:D200 D185:D189">
-    <cfRule type="containsText" dxfId="106" priority="184" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D185)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="185" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D185)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="186">
+  <conditionalFormatting sqref="D201:D206 D208">
+    <cfRule type="containsText" dxfId="116" priority="194" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D201)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="195" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D201)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13891,7 +13988,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="187">
+    <cfRule type="colorScale" priority="197">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13902,14 +13999,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D201:D206 D208">
-    <cfRule type="containsText" dxfId="104" priority="180" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D201)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="181" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D201)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="182">
+  <conditionalFormatting sqref="D209:D216">
+    <cfRule type="containsText" dxfId="114" priority="190" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D209)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="191" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D209)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13917,7 +14014,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="183">
+    <cfRule type="colorScale" priority="193">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13928,12 +14025,72 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D209:D216">
-    <cfRule type="containsText" dxfId="102" priority="176" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D209)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="177" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D209)))</formula>
+  <conditionalFormatting sqref="D218">
+    <cfRule type="containsText" dxfId="112" priority="186" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D218)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="187" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D218)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="189">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D219:D231">
+    <cfRule type="containsText" dxfId="110" priority="182" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D219)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="183" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D219)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C98 C109 C218:C235 C161:C166 C114:C128 C139:C143 C184:C189 C192:C206 C208:C216 C237:C241 C341:C346 C130:C135 C173:C182 C145:C158 C168 C170:C171">
+    <cfRule type="containsText" dxfId="108" priority="180" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="181" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D242">
+    <cfRule type="containsText" dxfId="106" priority="176" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D242)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="177" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D242)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="178">
       <colorScale>
@@ -13954,14 +14111,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D218">
-    <cfRule type="containsText" dxfId="100" priority="172" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D218)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="173" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D218)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="174">
+  <conditionalFormatting sqref="C2:C98 C109 C218:C235 C161:C166 C114:C128 C139:C143 C184:C189 C192:C206 C208:C216 C237:C242 C341:C346 C130:C135 C173:C182 C145:C158 C168 C170:C171">
+    <cfRule type="containsText" dxfId="104" priority="175" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99:D103">
+    <cfRule type="containsText" dxfId="103" priority="171" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D99)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="172" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D99)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13969,7 +14131,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="175">
+    <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13980,14 +14142,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D219:D231">
-    <cfRule type="containsText" dxfId="98" priority="168" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D219)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="169" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D219)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="170">
+  <conditionalFormatting sqref="C99:C107">
+    <cfRule type="containsText" dxfId="101" priority="169" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C99)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="170" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C99)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99:C107">
+    <cfRule type="containsText" dxfId="99" priority="168" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C99)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110:C113">
+    <cfRule type="containsText" dxfId="98" priority="166" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="167" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110:C113">
+    <cfRule type="containsText" dxfId="96" priority="165" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C242">
+    <cfRule type="containsText" dxfId="95" priority="163" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C242)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="164" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C242)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D286:D291 D257:D261 D268:D277">
+    <cfRule type="containsText" dxfId="93" priority="155" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D257)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="156" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D257)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -13995,7 +14191,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="171">
+    <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14006,22 +14202,53 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C98 C109 C218:C235 C161:C171 C114:C128 C139:C143 C184:C189 C192:C206 C208:C216 C237:C241 C341:C346 C130:C135 C173:C182 C145:C158">
-    <cfRule type="containsText" dxfId="96" priority="166" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="167" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C2)))</formula>
+  <conditionalFormatting sqref="C286:C291 C267:C277 C257:C261 C248:C251">
+    <cfRule type="containsText" dxfId="91" priority="153" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C248)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="154" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C248)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D242">
-    <cfRule type="containsText" dxfId="94" priority="162" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D242)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="163" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D242)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="164">
+  <conditionalFormatting sqref="C286:C291 C267:C277 C257:C261 C248:C251">
+    <cfRule type="containsText" dxfId="89" priority="152" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C248)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C252">
+    <cfRule type="containsText" dxfId="88" priority="150" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C252)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="151" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C252)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C252">
+    <cfRule type="containsText" dxfId="86" priority="149" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C252)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C253">
+    <cfRule type="containsText" dxfId="85" priority="147" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C253)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="148" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C253)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C253">
+    <cfRule type="containsText" dxfId="83" priority="146" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C253)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D248:D251">
+    <cfRule type="containsText" dxfId="82" priority="159" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D248)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="160" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D248)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14029,7 +14256,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="165">
+    <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14040,19 +14267,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C98 C109 C218:C235 C161:C171 C114:C128 C139:C143 C184:C189 C192:C206 C208:C216 C237:C242 C341:C346 C130:C135 C173:C182 C145:C158">
-    <cfRule type="containsText" dxfId="92" priority="161" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C2)))</formula>
+  <conditionalFormatting sqref="C262:C266">
+    <cfRule type="containsText" dxfId="80" priority="144" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C262)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="145" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C262)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D99:D103">
-    <cfRule type="containsText" dxfId="91" priority="157" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D99)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="158" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D99)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="159">
+  <conditionalFormatting sqref="C262:C266">
+    <cfRule type="containsText" dxfId="78" priority="143" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C262)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D279:D285">
+    <cfRule type="containsText" dxfId="77" priority="139" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D279)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="140" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D279)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14060,7 +14295,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="160">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14071,48 +14306,53 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C99:C107">
-    <cfRule type="containsText" dxfId="89" priority="155" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C99)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="156" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C99)))</formula>
+  <conditionalFormatting sqref="C279:C285">
+    <cfRule type="containsText" dxfId="75" priority="137" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C279)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="138" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C279)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C99:C107">
-    <cfRule type="containsText" dxfId="87" priority="154" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C99)))</formula>
+  <conditionalFormatting sqref="C279:C285">
+    <cfRule type="containsText" dxfId="73" priority="136" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C279)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C110:C113">
-    <cfRule type="containsText" dxfId="86" priority="152" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C110)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="153" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C110)))</formula>
+  <conditionalFormatting sqref="D149:D151">
+    <cfRule type="containsText" dxfId="72" priority="134" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",D149)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="135" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D149)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C110:C113">
-    <cfRule type="containsText" dxfId="84" priority="151" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C110)))</formula>
+  <conditionalFormatting sqref="D149:D151">
+    <cfRule type="containsText" dxfId="70" priority="133" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",D149)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C242">
-    <cfRule type="containsText" dxfId="83" priority="149" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C242)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="150" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C242)))</formula>
+  <conditionalFormatting sqref="D104:D107">
+    <cfRule type="containsText" dxfId="69" priority="131" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",D104)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="132" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D104)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D286:D291 D257:D261 D268:D277">
-    <cfRule type="containsText" dxfId="81" priority="141" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D257)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="142" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D257)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="143">
+  <conditionalFormatting sqref="D104:D107">
+    <cfRule type="containsText" dxfId="67" priority="130" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",D104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D252:D253">
+    <cfRule type="containsText" dxfId="66" priority="126" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D252)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="127" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D252)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14120,7 +14360,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="144">
+    <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14131,53 +14371,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C286:C291 C267:C277 C257:C261 C248:C251">
-    <cfRule type="containsText" dxfId="79" priority="139" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C248)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="140" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C248)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C286:C291 C267:C277 C257:C261 C248:C251">
-    <cfRule type="containsText" dxfId="77" priority="138" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C248)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="76" priority="136" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C252)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="137" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C252)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="74" priority="135" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C252)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C253">
-    <cfRule type="containsText" dxfId="73" priority="133" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C253)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="134" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C253)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C253">
-    <cfRule type="containsText" dxfId="71" priority="132" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C253)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D248:D251">
-    <cfRule type="containsText" dxfId="70" priority="145" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D248)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="146" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D248)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="147">
+  <conditionalFormatting sqref="D262:D267">
+    <cfRule type="containsText" dxfId="64" priority="122" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D262)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="123" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D262)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14185,7 +14386,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="148">
+    <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14196,27 +14397,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C262:C266">
-    <cfRule type="containsText" dxfId="68" priority="130" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C262)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="131" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C262)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C262:C266">
-    <cfRule type="containsText" dxfId="66" priority="129" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C262)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D279:D285">
-    <cfRule type="containsText" dxfId="65" priority="125" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D279)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="126" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D279)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="127">
+  <conditionalFormatting sqref="D232:D235 D237:D241">
+    <cfRule type="containsText" dxfId="62" priority="118" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D232)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="119" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D232)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14224,7 +14412,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="128">
+    <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14235,53 +14423,53 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C279:C285">
-    <cfRule type="containsText" dxfId="63" priority="123" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C279)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="124" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C279)))</formula>
+  <conditionalFormatting sqref="C159:D160">
+    <cfRule type="containsText" dxfId="60" priority="113" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C159)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="114" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C159)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C279:C285">
-    <cfRule type="containsText" dxfId="61" priority="122" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C279)))</formula>
+  <conditionalFormatting sqref="C159:D160">
+    <cfRule type="containsText" dxfId="58" priority="112" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C159)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D149:D151">
-    <cfRule type="containsText" dxfId="60" priority="120" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",D149)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="121" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D149)))</formula>
+  <conditionalFormatting sqref="C191:D191">
+    <cfRule type="containsText" dxfId="57" priority="110" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C191)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="111" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C191)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D149:D151">
-    <cfRule type="containsText" dxfId="58" priority="119" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",D149)))</formula>
+  <conditionalFormatting sqref="C191:D191">
+    <cfRule type="containsText" dxfId="55" priority="109" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C191)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D104:D107">
-    <cfRule type="containsText" dxfId="57" priority="117" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",D104)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="118" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D104)))</formula>
+  <conditionalFormatting sqref="C243:C244 C246:C247">
+    <cfRule type="containsText" dxfId="54" priority="107" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C243)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="108" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C243)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D104:D107">
-    <cfRule type="containsText" dxfId="55" priority="116" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",D104)))</formula>
+  <conditionalFormatting sqref="C243:C244 C246:C247">
+    <cfRule type="containsText" dxfId="52" priority="106" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C243)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D252:D253">
-    <cfRule type="containsText" dxfId="54" priority="112" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D252)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="113" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D252)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="114">
+  <conditionalFormatting sqref="D243:D244 D246:D247">
+    <cfRule type="containsText" dxfId="51" priority="102" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D243)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="103" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D243)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14289,7 +14477,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="115">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14300,14 +14488,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D262:D267">
-    <cfRule type="containsText" dxfId="52" priority="108" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D262)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="109" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D262)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="110">
+  <conditionalFormatting sqref="C255">
+    <cfRule type="containsText" dxfId="49" priority="100" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C255)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="101" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C255)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C255">
+    <cfRule type="containsText" dxfId="47" priority="99" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C255)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D255">
+    <cfRule type="containsText" dxfId="46" priority="95" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D255)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="96" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D255)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14315,7 +14516,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="111">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14326,14 +14527,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D232:D235 D237:D241">
-    <cfRule type="containsText" dxfId="50" priority="104" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D232)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="105" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D232)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="106">
+  <conditionalFormatting sqref="D293">
+    <cfRule type="containsText" dxfId="44" priority="91" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D293)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="92" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D293)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14341,7 +14542,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14352,53 +14553,92 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C159:D160">
-    <cfRule type="containsText" dxfId="48" priority="99" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C159)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="100" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C159)))</formula>
+  <conditionalFormatting sqref="C293">
+    <cfRule type="containsText" dxfId="42" priority="89" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C293)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="90" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C293)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C159:D160">
-    <cfRule type="containsText" dxfId="46" priority="98" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C159)))</formula>
+  <conditionalFormatting sqref="C293">
+    <cfRule type="containsText" dxfId="40" priority="88" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C293)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C191:D191">
-    <cfRule type="containsText" dxfId="45" priority="96" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C191)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="97" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C191)))</formula>
+  <conditionalFormatting sqref="C306 C319 C326:C332 C321:C324 C308:C313 C295:C298 C300:C303">
+    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C295)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="44" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C295)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C191:D191">
-    <cfRule type="containsText" dxfId="43" priority="95" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C191)))</formula>
+  <conditionalFormatting sqref="C306 C319 C326:C332 C321:C324 C308:C313 C295:C298 C300:C303">
+    <cfRule type="containsText" dxfId="37" priority="42" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C295)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C243:C244 C246:C247">
-    <cfRule type="containsText" dxfId="42" priority="93" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C243)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="94" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C243)))</formula>
+  <conditionalFormatting sqref="C304">
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C304)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="41" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C304)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C243:C244 C246:C247">
-    <cfRule type="containsText" dxfId="40" priority="92" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C243)))</formula>
+  <conditionalFormatting sqref="C304">
+    <cfRule type="containsText" dxfId="34" priority="39" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C304)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D243:D244 D246:D247">
-    <cfRule type="containsText" dxfId="39" priority="88" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D243)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="89" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D243)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="90">
+  <conditionalFormatting sqref="C305">
+    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C305)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="38" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C305)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C305">
+    <cfRule type="containsText" dxfId="31" priority="36" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C305)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C314:C318">
+    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C314)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="35" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C314)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C314:C318">
+    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C314)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C333:C339">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C333)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C333)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C333:C339">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C333)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D321:D324 D341:D346 D295:D298 D306 D308:D313 D326:D332">
+    <cfRule type="containsText" dxfId="24" priority="45" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D295)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="46" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D295)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14406,7 +14646,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="91">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14417,27 +14657,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C255">
-    <cfRule type="containsText" dxfId="37" priority="86" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C255)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="87" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C255)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C255">
-    <cfRule type="containsText" dxfId="35" priority="85" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C255)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D255">
-    <cfRule type="containsText" dxfId="34" priority="81" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D255)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="82" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D255)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="83">
+  <conditionalFormatting sqref="D300:D303">
+    <cfRule type="containsText" dxfId="22" priority="49" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D300)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="50" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D300)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14445,7 +14672,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="84">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14456,14 +14683,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D293">
-    <cfRule type="containsText" dxfId="32" priority="77" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D293)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="78" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D293)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="D333:D339">
+    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D333)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="30" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D333)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14471,7 +14698,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="80">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14482,92 +14709,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C293">
-    <cfRule type="containsText" dxfId="30" priority="75" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C293)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="76" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C293)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C293">
-    <cfRule type="containsText" dxfId="28" priority="74" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C293)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C306 C319 C326:C332 C321:C324 C308:C313 C295:C298 C300:C303">
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C295)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C295)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C306 C319 C326:C332 C321:C324 C308:C313 C295:C298 C300:C303">
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C295)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C304">
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C304)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C304)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C304">
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C304)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C305">
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C305)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C305)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C305">
-    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C305)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C314:C318">
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C314)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C314)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C314:C318">
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C314)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C333:C339">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C333)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C333)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C333:C339">
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C333)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D321:D324 D341:D346 D295:D298 D306 D308:D313 D326:D332">
-    <cfRule type="containsText" dxfId="12" priority="31" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D295)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="32" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D295)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="D304:D305">
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D304)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D304)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14575,7 +14724,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14586,14 +14735,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D300:D303">
-    <cfRule type="containsText" dxfId="10" priority="35" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D300)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="36" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D300)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="D314:D319">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D314)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D314)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14601,7 +14750,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14612,14 +14761,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D333:D339">
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D333)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="16" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D333)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="C136:D137">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C136)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C136)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136:D137">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C136)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D169">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D169)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D169)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14627,7 +14789,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14638,38 +14800,25 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D304:D305">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D304)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D304)))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="C169">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C169)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C169)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D314:D319">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",D314)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH("pass",D314)))</formula>
+  <conditionalFormatting sqref="C169">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C169)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D167">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D167)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D167)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -14690,17 +14839,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C136:D137">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",C136)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH("fail",C136)))</formula>
+  <conditionalFormatting sqref="C167">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",C167)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",C167)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C136:D137">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="tbd">
-      <formula>NOT(ISERROR(SEARCH("tbd",C136)))</formula>
+  <conditionalFormatting sqref="C167">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="tbd">
+      <formula>NOT(ISERROR(SEARCH("tbd",C167)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D161:D166 D127:D128 D115:D125 D2:D98 D109:D113 D152:D157 D139:D143 D145:D148 D130:D135 D168">
+    <cfRule type="containsText" dxfId="1" priority="218" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH("fail",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="219" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH("pass",D2)))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="221">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
@@ -14714,12 +14889,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010041F1DCA27DC42240A9D73CE6C4CE8D53" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d010b86838ea4765224aefc23e9b41e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae6a5dc1-bc70-4d54-9e51-a7c58dda05f0" xmlns:ns3="1965fc86-dbcd-4b25-ad1c-59ee6e80827c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b68509b6ea36692a1a49c463e2ad98c8" ns2:_="" ns3:_="">
     <xsd:import namespace="ae6a5dc1-bc70-4d54-9e51-a7c58dda05f0"/>
@@ -14898,16 +15082,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A13F4E1-E4FF-4939-AAFD-D08AF762B476}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20A8317-A7E1-4AC7-B238-8A6E2BAE744F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -14924,7 +15107,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA7584A5-3F8A-450E-A09B-D201A7938B96}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14941,12 +15124,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A13F4E1-E4FF-4939-AAFD-D08AF762B476}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>